--- a/database/industries/darou/dejaber/product/quarterly_seprated.xlsx
+++ b/database/industries/darou/dejaber/product/quarterly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dejaber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE650B27-B97B-4481-9BD0-320A4C967A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="56">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دجابر-داروسازی‌ جابرابن‌حیان‌</t>
@@ -36,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -60,6 +61,9 @@
     <t>تیوپ</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>اسپری</t>
   </si>
   <si>
@@ -81,9 +85,6 @@
     <t>محصول بازرگانی</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>جمع فروش داخلی</t>
   </si>
   <si>
@@ -103,9 +104,6 @@
   </si>
   <si>
     <t>برگشت از فروش</t>
-  </si>
-  <si>
-    <t>ریال</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
@@ -195,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,7 +380,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -394,7 +392,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -441,6 +439,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +491,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -627,17 +659,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,7 +679,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,7 +691,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -671,7 +703,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -681,7 +713,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -693,7 +725,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -705,7 +737,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -715,7 +747,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -737,7 +769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -747,7 +779,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -759,7 +791,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -768,130 +800,130 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>253200</v>
-      </c>
-      <c r="F11" s="11">
         <v>383400</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="11">
-        <v>60000</v>
+        <v>571937</v>
       </c>
       <c r="H11" s="11">
-        <v>571937</v>
+        <v>321032</v>
       </c>
       <c r="I11" s="11">
-        <v>321032</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>628127</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>1437973</v>
-      </c>
-      <c r="F12" s="13">
         <v>1716668</v>
       </c>
+      <c r="F12" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="13">
-        <v>1209094</v>
+        <v>418225</v>
       </c>
       <c r="H12" s="13">
-        <v>418225</v>
+        <v>765958</v>
       </c>
       <c r="I12" s="13">
-        <v>765958</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2142929</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>-1130181</v>
-      </c>
-      <c r="F13" s="11">
         <v>383295</v>
       </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" s="11">
-        <v>364664</v>
+        <v>44254</v>
       </c>
       <c r="H13" s="11">
-        <v>44254</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>641831</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>79952906</v>
-      </c>
-      <c r="F14" s="13">
         <v>90626626</v>
       </c>
+      <c r="F14" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G14" s="13">
-        <v>59501000</v>
+        <v>82449360</v>
       </c>
       <c r="H14" s="13">
-        <v>82449360</v>
+        <v>75740060</v>
       </c>
       <c r="I14" s="13">
-        <v>75740060</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>87033020</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>10526525</v>
-      </c>
-      <c r="F15" s="11">
         <v>7296620</v>
       </c>
+      <c r="F15" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G15" s="11">
-        <v>6562020</v>
+        <v>8814280</v>
       </c>
       <c r="H15" s="11">
-        <v>8814280</v>
+        <v>7279425</v>
       </c>
       <c r="I15" s="11">
-        <v>7279425</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5456880</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="13">
-        <v>0</v>
+      <c r="E16" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G16" s="13">
         <v>0</v>
@@ -903,29 +935,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15">
-        <v>91040423</v>
+        <v>100406609</v>
       </c>
       <c r="F17" s="15">
-        <v>100406609</v>
+        <v>0</v>
       </c>
       <c r="G17" s="15">
-        <v>67696778</v>
+        <v>92298056</v>
       </c>
       <c r="H17" s="15">
-        <v>92298056</v>
+        <v>84106475</v>
       </c>
       <c r="I17" s="15">
-        <v>84106475</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>95902787</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -937,7 +969,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>11</v>
       </c>
@@ -945,11 +977,11 @@
         <v>12</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
-        <v>0</v>
+      <c r="E19" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
@@ -961,19 +993,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="13">
-        <v>0</v>
+      <c r="E20" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
@@ -985,43 +1017,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>14</v>
-      </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="13">
-        <v>0</v>
+      <c r="E22" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G22" s="13">
         <v>0</v>
@@ -1033,20 +1065,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11">
         <v>366798</v>
       </c>
+      <c r="F23" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G23" s="11">
         <v>0</v>
       </c>
@@ -1057,22 +1089,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="13">
-        <v>0</v>
+      <c r="E24" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0</v>
       </c>
       <c r="H24" s="13">
         <v>0</v>
@@ -1081,17 +1113,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15">
-        <v>0</v>
+        <v>366798</v>
       </c>
       <c r="F25" s="15">
-        <v>366798</v>
+        <v>0</v>
       </c>
       <c r="G25" s="15">
         <v>0</v>
@@ -1103,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>24</v>
       </c>
@@ -1115,31 +1147,31 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G27" s="11">
-        <v>0</v>
+        <v>377858</v>
       </c>
       <c r="H27" s="11">
-        <v>377858</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1560373</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>26</v>
       </c>
@@ -1152,50 +1184,48 @@
         <v>0</v>
       </c>
       <c r="G28" s="17">
-        <v>0</v>
+        <v>377858</v>
       </c>
       <c r="H28" s="17">
-        <v>377858</v>
+        <v>0</v>
       </c>
       <c r="I28" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1560373</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17">
         <v>0</v>
       </c>
-      <c r="F30" s="17">
-        <v>0</v>
+      <c r="F30" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="G30" s="17">
         <v>0</v>
@@ -1207,29 +1237,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>91040423</v>
+        <v>100773407</v>
       </c>
       <c r="F31" s="15">
-        <v>100773407</v>
+        <v>0</v>
       </c>
       <c r="G31" s="15">
-        <v>67696778</v>
+        <v>92675914</v>
       </c>
       <c r="H31" s="15">
-        <v>92675914</v>
+        <v>84106475</v>
       </c>
       <c r="I31" s="15">
-        <v>84106475</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>97463160</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1239,7 +1269,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1249,7 +1279,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1259,9 +1289,9 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1281,7 +1311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1291,9 +1321,9 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1303,139 +1333,139 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>12602</v>
-      </c>
-      <c r="F38" s="11">
         <v>20320</v>
       </c>
+      <c r="F38" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G38" s="11">
-        <v>3180</v>
+        <v>30312</v>
       </c>
       <c r="H38" s="11">
-        <v>30312</v>
+        <v>20605</v>
       </c>
       <c r="I38" s="11">
-        <v>20605</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40720</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
-        <v>513907</v>
-      </c>
-      <c r="F39" s="13">
         <v>531021</v>
       </c>
+      <c r="F39" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G39" s="13">
-        <v>262492</v>
+        <v>59153</v>
       </c>
       <c r="H39" s="13">
-        <v>59153</v>
+        <v>259798</v>
       </c>
       <c r="I39" s="13">
-        <v>259798</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>770973</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>2363</v>
-      </c>
-      <c r="F40" s="11">
         <v>21356</v>
       </c>
+      <c r="F40" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G40" s="11">
-        <v>27505</v>
+        <v>3319</v>
       </c>
       <c r="H40" s="11">
-        <v>3319</v>
+        <v>0</v>
       </c>
       <c r="I40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>128927</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>1084470</v>
-      </c>
-      <c r="F41" s="13">
         <v>630049</v>
       </c>
+      <c r="F41" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G41" s="13">
-        <v>402678</v>
+        <v>737557</v>
       </c>
       <c r="H41" s="13">
-        <v>737557</v>
+        <v>679756</v>
       </c>
       <c r="I41" s="13">
-        <v>679756</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1112668</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>493708</v>
-      </c>
-      <c r="F42" s="11">
         <v>369843</v>
       </c>
+      <c r="F42" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G42" s="11">
-        <v>411816</v>
+        <v>347717</v>
       </c>
       <c r="H42" s="11">
-        <v>347717</v>
+        <v>1358975</v>
       </c>
       <c r="I42" s="11">
-        <v>1358975</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>655675</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="13"/>
-      <c r="E43" s="13">
-        <v>0</v>
+      <c r="E43" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G43" s="13">
         <v>0</v>
@@ -1447,31 +1477,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>2107050</v>
+        <v>1572589</v>
       </c>
       <c r="F44" s="15">
-        <v>1572589</v>
+        <v>0</v>
       </c>
       <c r="G44" s="15">
-        <v>1107671</v>
+        <v>1178058</v>
       </c>
       <c r="H44" s="15">
-        <v>1178058</v>
+        <v>2319134</v>
       </c>
       <c r="I44" s="15">
-        <v>2319134</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2708963</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -1481,19 +1511,19 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11">
-        <v>0</v>
+      <c r="E46" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G46" s="11">
         <v>0</v>
@@ -1505,19 +1535,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="13"/>
-      <c r="E47" s="13">
-        <v>0</v>
+      <c r="E47" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G47" s="13">
         <v>0</v>
@@ -1529,19 +1559,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11">
-        <v>0</v>
+      <c r="E48" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G48" s="11">
         <v>0</v>
@@ -1553,19 +1583,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" s="13"/>
-      <c r="E49" s="13">
-        <v>0</v>
+      <c r="E49" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G49" s="13">
         <v>0</v>
@@ -1577,20 +1607,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>0</v>
-      </c>
-      <c r="F50" s="11">
         <v>14597</v>
       </c>
+      <c r="F50" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G50" s="11">
         <v>0</v>
       </c>
@@ -1601,22 +1631,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="13"/>
-      <c r="E51" s="13">
-        <v>0</v>
+      <c r="E51" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0</v>
       </c>
       <c r="H51" s="13">
         <v>0</v>
@@ -1625,17 +1655,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15">
-        <v>0</v>
+        <v>14597</v>
       </c>
       <c r="F52" s="15">
-        <v>14597</v>
+        <v>0</v>
       </c>
       <c r="G52" s="15">
         <v>0</v>
@@ -1647,9 +1677,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -1659,31 +1689,31 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G54" s="11">
-        <v>88873</v>
+        <v>46070</v>
       </c>
       <c r="H54" s="11">
-        <v>46070</v>
+        <v>42922</v>
       </c>
       <c r="I54" s="11">
-        <v>42922</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18613</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>26</v>
       </c>
@@ -1696,86 +1726,86 @@
         <v>0</v>
       </c>
       <c r="G55" s="17">
-        <v>88873</v>
+        <v>46070</v>
       </c>
       <c r="H55" s="17">
-        <v>46070</v>
+        <v>42922</v>
       </c>
       <c r="I55" s="17">
-        <v>42922</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18613</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17">
-        <v>-172857</v>
-      </c>
-      <c r="F57" s="17">
         <v>-140160</v>
       </c>
+      <c r="F57" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="G57" s="17">
-        <v>-162249</v>
+        <v>-134349</v>
       </c>
       <c r="H57" s="17">
-        <v>-134349</v>
+        <v>-274170</v>
       </c>
       <c r="I57" s="17">
-        <v>-274170</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-287425</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15">
-        <v>1934193</v>
+        <v>1447026</v>
       </c>
       <c r="F58" s="15">
-        <v>1447026</v>
+        <v>0</v>
       </c>
       <c r="G58" s="15">
-        <v>1034295</v>
+        <v>1089779</v>
       </c>
       <c r="H58" s="15">
-        <v>1089779</v>
+        <v>2087886</v>
       </c>
       <c r="I58" s="15">
-        <v>2087886</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2440151</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1785,7 +1815,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1795,7 +1825,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1805,9 +1835,9 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1827,7 +1857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1837,9 +1867,9 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -1849,153 +1879,153 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>49771</v>
+        <v>52999</v>
       </c>
       <c r="F65" s="11">
+        <v>53000</v>
+      </c>
+      <c r="G65" s="11">
         <v>52999</v>
       </c>
-      <c r="G65" s="11">
-        <v>53000</v>
-      </c>
       <c r="H65" s="11">
-        <v>52999</v>
+        <v>64184</v>
       </c>
       <c r="I65" s="11">
-        <v>64184</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>64828</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
-        <v>357383</v>
+        <v>309332</v>
       </c>
       <c r="F66" s="13">
-        <v>309332</v>
+        <v>217098</v>
       </c>
       <c r="G66" s="13">
-        <v>217098</v>
+        <v>141438</v>
       </c>
       <c r="H66" s="13">
-        <v>141438</v>
+        <v>339180</v>
       </c>
       <c r="I66" s="13">
-        <v>339180</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>359775</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
-        <v>67514</v>
+        <v>55717</v>
       </c>
       <c r="F67" s="11">
-        <v>55717</v>
+        <v>75426</v>
       </c>
       <c r="G67" s="11">
-        <v>75426</v>
-      </c>
-      <c r="H67" s="11">
         <v>74999</v>
       </c>
-      <c r="I67" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H67" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="11">
+        <v>200874</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
-        <v>8224</v>
+        <v>6952</v>
       </c>
       <c r="F68" s="13">
-        <v>6952</v>
+        <v>6768</v>
       </c>
       <c r="G68" s="13">
-        <v>6768</v>
+        <v>8946</v>
       </c>
       <c r="H68" s="13">
-        <v>8946</v>
+        <v>8975</v>
       </c>
       <c r="I68" s="13">
-        <v>8975</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12784</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>46901</v>
+        <v>50687</v>
       </c>
       <c r="F69" s="11">
-        <v>50687</v>
+        <v>62758</v>
       </c>
       <c r="G69" s="11">
-        <v>62758</v>
+        <v>39449</v>
       </c>
       <c r="H69" s="11">
-        <v>39449</v>
+        <v>186687</v>
       </c>
       <c r="I69" s="11">
-        <v>186687</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>120156</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -2005,153 +2035,153 @@
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11">
+        <v>39796</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F75" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I75" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="11">
-        <v>39796</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="C77" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -2161,31 +2191,31 @@
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2195,7 +2225,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2205,7 +2235,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2215,9 +2245,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2237,7 +2267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2247,9 +2277,9 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -2259,139 +2289,139 @@
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>-11760</v>
+        <v>-14979</v>
       </c>
       <c r="F86" s="11">
-        <v>-14979</v>
+        <v>-2472</v>
       </c>
       <c r="G86" s="11">
-        <v>-2472</v>
+        <v>-27694</v>
       </c>
       <c r="H86" s="11">
-        <v>-27694</v>
+        <v>-17797</v>
       </c>
       <c r="I86" s="11">
-        <v>-17797</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-33584</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13">
-        <v>-387818</v>
+        <v>-312528</v>
       </c>
       <c r="F87" s="13">
-        <v>-312528</v>
+        <v>-157557</v>
       </c>
       <c r="G87" s="13">
-        <v>-157557</v>
+        <v>-64212</v>
       </c>
       <c r="H87" s="13">
-        <v>-64212</v>
+        <v>-182319</v>
       </c>
       <c r="I87" s="13">
-        <v>-182319</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-608505</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
-        <v>-2050</v>
+        <v>-16342</v>
       </c>
       <c r="F88" s="11">
-        <v>-16342</v>
+        <v>-9543</v>
       </c>
       <c r="G88" s="11">
-        <v>-9543</v>
+        <v>-911</v>
       </c>
       <c r="H88" s="11">
-        <v>-911</v>
+        <v>-2069</v>
       </c>
       <c r="I88" s="11">
-        <v>-2069</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-94989</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>-606505</v>
+        <v>-386905</v>
       </c>
       <c r="F89" s="13">
-        <v>-386905</v>
+        <v>-283421</v>
       </c>
       <c r="G89" s="13">
-        <v>-283421</v>
+        <v>-419829</v>
       </c>
       <c r="H89" s="13">
-        <v>-419829</v>
+        <v>-419682</v>
       </c>
       <c r="I89" s="13">
-        <v>-419682</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-632938</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>-247733</v>
+        <v>-273294</v>
       </c>
       <c r="F90" s="11">
-        <v>-273294</v>
+        <v>-249727</v>
       </c>
       <c r="G90" s="11">
-        <v>-249727</v>
+        <v>-260505</v>
       </c>
       <c r="H90" s="11">
-        <v>-260505</v>
+        <v>-769179</v>
       </c>
       <c r="I90" s="11">
-        <v>-769179</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-269139</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D91" s="13"/>
-      <c r="E91" s="13">
-        <v>0</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>20</v>
+      <c r="E91" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="13">
+        <v>0</v>
       </c>
       <c r="G91" s="13">
         <v>0</v>
@@ -2403,31 +2433,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
-        <v>-1255866</v>
+        <v>-1004048</v>
       </c>
       <c r="F92" s="15">
-        <v>-1004048</v>
+        <v>-702720</v>
       </c>
       <c r="G92" s="15">
-        <v>-702720</v>
+        <v>-773151</v>
       </c>
       <c r="H92" s="15">
-        <v>-773151</v>
+        <v>-1391046</v>
       </c>
       <c r="I92" s="15">
-        <v>-1391046</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1639155</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -2437,19 +2467,19 @@
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11">
-        <v>0</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>20</v>
+      <c r="E94" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="11">
+        <v>0</v>
       </c>
       <c r="G94" s="11">
         <v>0</v>
@@ -2461,19 +2491,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D95" s="13"/>
-      <c r="E95" s="13">
-        <v>0</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>20</v>
+      <c r="E95" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="13">
+        <v>0</v>
       </c>
       <c r="G95" s="13">
         <v>0</v>
@@ -2485,19 +2515,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="11">
-        <v>0</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>20</v>
+      <c r="E96" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="11">
+        <v>0</v>
       </c>
       <c r="G96" s="11">
         <v>0</v>
@@ -2509,19 +2539,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D97" s="13"/>
-      <c r="E97" s="13">
-        <v>0</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>20</v>
+      <c r="E97" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="13">
+        <v>0</v>
       </c>
       <c r="G97" s="13">
         <v>0</v>
@@ -2533,19 +2563,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
-        <v>0</v>
+        <v>-13306</v>
       </c>
       <c r="F98" s="11">
-        <v>-13306</v>
+        <v>0</v>
       </c>
       <c r="G98" s="11">
         <v>0</v>
@@ -2557,22 +2587,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D99" s="13"/>
-      <c r="E99" s="13">
-        <v>0</v>
+      <c r="E99" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="G99" s="13">
+        <v>0</v>
       </c>
       <c r="H99" s="13">
         <v>0</v>
@@ -2581,17 +2611,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15">
-        <v>0</v>
+        <v>-13306</v>
       </c>
       <c r="F100" s="15">
-        <v>-13306</v>
+        <v>0</v>
       </c>
       <c r="G100" s="15">
         <v>0</v>
@@ -2603,9 +2633,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
@@ -2615,33 +2645,33 @@
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="F102" s="11">
+        <v>-53693</v>
       </c>
       <c r="G102" s="11">
-        <v>-53693</v>
+        <v>-39548</v>
       </c>
       <c r="H102" s="11">
-        <v>-39548</v>
+        <v>-34911</v>
       </c>
       <c r="I102" s="11">
-        <v>-34911</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-11092</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -2649,48 +2679,48 @@
         <v>0</v>
       </c>
       <c r="F103" s="17">
-        <v>0</v>
+        <v>-53693</v>
       </c>
       <c r="G103" s="17">
-        <v>-53693</v>
+        <v>-39548</v>
       </c>
       <c r="H103" s="17">
-        <v>-39548</v>
+        <v>-34911</v>
       </c>
       <c r="I103" s="17">
-        <v>-34911</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-11092</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H104" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I104" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="17">
@@ -2709,29 +2739,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15">
-        <v>-1255866</v>
+        <v>-1017354</v>
       </c>
       <c r="F106" s="15">
-        <v>-1017354</v>
+        <v>-756413</v>
       </c>
       <c r="G106" s="15">
-        <v>-756413</v>
+        <v>-812699</v>
       </c>
       <c r="H106" s="15">
-        <v>-812699</v>
+        <v>-1425957</v>
       </c>
       <c r="I106" s="15">
-        <v>-1425957</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1650247</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2741,7 +2771,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2751,7 +2781,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2761,9 +2791,9 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -2783,7 +2813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2793,9 +2823,9 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -2805,139 +2835,139 @@
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11">
-        <v>842</v>
+        <v>5341</v>
       </c>
       <c r="F113" s="11">
-        <v>5341</v>
+        <v>708</v>
       </c>
       <c r="G113" s="11">
-        <v>708</v>
+        <v>2618</v>
       </c>
       <c r="H113" s="11">
-        <v>2618</v>
+        <v>2808</v>
       </c>
       <c r="I113" s="11">
-        <v>2808</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7136</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>126089</v>
+        <v>218493</v>
       </c>
       <c r="F114" s="13">
-        <v>218493</v>
+        <v>104935</v>
       </c>
       <c r="G114" s="13">
-        <v>104935</v>
+        <v>-5059</v>
       </c>
       <c r="H114" s="13">
-        <v>-5059</v>
+        <v>77479</v>
       </c>
       <c r="I114" s="13">
-        <v>77479</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>162468</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11">
-        <v>313</v>
+        <v>5014</v>
       </c>
       <c r="F115" s="11">
-        <v>5014</v>
+        <v>17962</v>
       </c>
       <c r="G115" s="11">
-        <v>17962</v>
+        <v>2408</v>
       </c>
       <c r="H115" s="11">
-        <v>2408</v>
+        <v>-2069</v>
       </c>
       <c r="I115" s="11">
-        <v>-2069</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33938</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13">
-        <v>477965</v>
+        <v>243144</v>
       </c>
       <c r="F116" s="13">
-        <v>243144</v>
+        <v>119257</v>
       </c>
       <c r="G116" s="13">
-        <v>119257</v>
+        <v>317728</v>
       </c>
       <c r="H116" s="13">
-        <v>317728</v>
+        <v>260074</v>
       </c>
       <c r="I116" s="13">
-        <v>260074</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>479730</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
-        <v>245975</v>
+        <v>96549</v>
       </c>
       <c r="F117" s="11">
-        <v>96549</v>
+        <v>162089</v>
       </c>
       <c r="G117" s="11">
-        <v>162089</v>
+        <v>87212</v>
       </c>
       <c r="H117" s="11">
-        <v>87212</v>
+        <v>589796</v>
       </c>
       <c r="I117" s="11">
-        <v>589796</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>386536</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D118" s="13"/>
-      <c r="E118" s="13">
-        <v>0</v>
-      </c>
-      <c r="F118" s="13" t="s">
-        <v>20</v>
+      <c r="E118" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="13">
+        <v>0</v>
       </c>
       <c r="G118" s="13">
         <v>0</v>
@@ -2949,31 +2979,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>851184</v>
+        <v>568541</v>
       </c>
       <c r="F119" s="15">
-        <v>568541</v>
+        <v>404951</v>
       </c>
       <c r="G119" s="15">
-        <v>404951</v>
+        <v>404907</v>
       </c>
       <c r="H119" s="15">
-        <v>404907</v>
+        <v>928088</v>
       </c>
       <c r="I119" s="15">
-        <v>928088</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1069808</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -2983,19 +3013,19 @@
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="11">
-        <v>0</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>20</v>
+      <c r="E121" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="11">
+        <v>0</v>
       </c>
       <c r="G121" s="11">
         <v>0</v>
@@ -3007,19 +3037,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D122" s="13"/>
-      <c r="E122" s="13">
-        <v>0</v>
-      </c>
-      <c r="F122" s="13" t="s">
-        <v>20</v>
+      <c r="E122" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="13">
+        <v>0</v>
       </c>
       <c r="G122" s="13">
         <v>0</v>
@@ -3031,19 +3061,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D123" s="11"/>
-      <c r="E123" s="11">
-        <v>0</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>20</v>
+      <c r="E123" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="11">
+        <v>0</v>
       </c>
       <c r="G123" s="11">
         <v>0</v>
@@ -3055,19 +3085,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D124" s="13"/>
-      <c r="E124" s="13">
-        <v>0</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>20</v>
+      <c r="E124" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="13">
+        <v>0</v>
       </c>
       <c r="G124" s="13">
         <v>0</v>
@@ -3079,19 +3109,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
-        <v>0</v>
+        <v>1291</v>
       </c>
       <c r="F125" s="11">
-        <v>1291</v>
+        <v>0</v>
       </c>
       <c r="G125" s="11">
         <v>0</v>
@@ -3103,22 +3133,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D126" s="13"/>
-      <c r="E126" s="13">
-        <v>0</v>
+      <c r="E126" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="G126" s="13">
+        <v>0</v>
       </c>
       <c r="H126" s="13">
         <v>0</v>
@@ -3127,17 +3157,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15">
-        <v>0</v>
+        <v>1291</v>
       </c>
       <c r="F127" s="15">
-        <v>1291</v>
+        <v>0</v>
       </c>
       <c r="G127" s="15">
         <v>0</v>
@@ -3149,9 +3179,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
@@ -3161,33 +3191,33 @@
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="F129" s="11">
+        <v>35180</v>
       </c>
       <c r="G129" s="11">
-        <v>35180</v>
+        <v>6522</v>
       </c>
       <c r="H129" s="11">
-        <v>6522</v>
+        <v>8011</v>
       </c>
       <c r="I129" s="11">
-        <v>8011</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7521</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
@@ -3195,38 +3225,38 @@
         <v>0</v>
       </c>
       <c r="F130" s="17">
-        <v>0</v>
+        <v>35180</v>
       </c>
       <c r="G130" s="17">
-        <v>35180</v>
+        <v>6522</v>
       </c>
       <c r="H130" s="17">
-        <v>6522</v>
+        <v>8011</v>
       </c>
       <c r="I130" s="17">
-        <v>8011</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7521</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
-        <v>851184</v>
+        <v>569832</v>
       </c>
       <c r="F131" s="15">
-        <v>569832</v>
+        <v>440131</v>
       </c>
       <c r="G131" s="15">
-        <v>440131</v>
+        <v>411429</v>
       </c>
       <c r="H131" s="15">
-        <v>411429</v>
+        <v>936099</v>
       </c>
       <c r="I131" s="15">
-        <v>936099</v>
+        <v>1077329</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/darou/dejaber/product/quarterly_seprated.xlsx
+++ b/database/industries/darou/dejaber/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dejaber\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE650B27-B97B-4481-9BD0-320A4C967A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA48DFE-DE4B-4599-BE85-0C36C7E779DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="61">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -660,16 +675,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I131"/>
+  <dimension ref="B1:N131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -678,8 +693,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -690,8 +710,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -702,8 +727,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -712,8 +742,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -724,8 +759,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -736,8 +776,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -746,8 +791,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -768,8 +818,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -778,10 +843,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -790,140 +860,220 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>351930</v>
+      </c>
+      <c r="F11" s="11">
+        <v>116280</v>
+      </c>
+      <c r="G11" s="11">
+        <v>293400</v>
+      </c>
+      <c r="H11" s="11">
+        <v>405810</v>
+      </c>
+      <c r="I11" s="11">
+        <v>253200</v>
+      </c>
+      <c r="J11" s="11">
         <v>383400</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
         <v>571937</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>321032</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>628127</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>1888422</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1643550</v>
+      </c>
+      <c r="G12" s="13">
+        <v>326400</v>
+      </c>
+      <c r="H12" s="13">
+        <v>753857</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1437973</v>
+      </c>
+      <c r="J12" s="13">
         <v>1716668</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
         <v>418225</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>765958</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>2142929</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>392810</v>
+      </c>
+      <c r="F13" s="11">
+        <v>513046</v>
+      </c>
+      <c r="G13" s="11">
+        <v>203696</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>-1130181</v>
+      </c>
+      <c r="J13" s="11">
         <v>383295</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
         <v>44254</v>
       </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
         <v>641831</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>44391168</v>
+      </c>
+      <c r="F14" s="13">
+        <v>50631794</v>
+      </c>
+      <c r="G14" s="13">
+        <v>23875824</v>
+      </c>
+      <c r="H14" s="13">
+        <v>20222968</v>
+      </c>
+      <c r="I14" s="13">
+        <v>79952906</v>
+      </c>
+      <c r="J14" s="13">
         <v>90626626</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
         <v>82449360</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>75740060</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>87033020</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>8157025</v>
+      </c>
+      <c r="F15" s="11">
+        <v>7949126</v>
+      </c>
+      <c r="G15" s="11">
+        <v>10881931</v>
+      </c>
+      <c r="H15" s="11">
+        <v>6463310</v>
+      </c>
+      <c r="I15" s="11">
+        <v>10526525</v>
+      </c>
+      <c r="J15" s="11">
         <v>7296620</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11">
         <v>8814280</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>7279425</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>5456880</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>13</v>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
       </c>
       <c r="G16" s="13">
         <v>0</v>
@@ -934,32 +1084,62 @@
       <c r="I16" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15">
+        <v>55181355</v>
+      </c>
+      <c r="F17" s="15">
+        <v>60853796</v>
+      </c>
+      <c r="G17" s="15">
+        <v>35581251</v>
+      </c>
+      <c r="H17" s="15">
+        <v>27845945</v>
+      </c>
+      <c r="I17" s="15">
+        <v>91040423</v>
+      </c>
+      <c r="J17" s="15">
         <v>100406609</v>
       </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
         <v>92298056</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>84106475</v>
       </c>
-      <c r="I17" s="15">
+      <c r="N17" s="15">
         <v>95902787</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -968,20 +1148,25 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>13</v>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
@@ -992,20 +1177,35 @@
       <c r="I19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>13</v>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
@@ -1016,20 +1216,35 @@
       <c r="I20" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>13</v>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
       </c>
       <c r="G21" s="11">
         <v>0</v>
@@ -1040,20 +1255,35 @@
       <c r="I21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>13</v>
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0</v>
       </c>
       <c r="G22" s="13">
         <v>0</v>
@@ -1064,80 +1294,140 @@
       <c r="I22" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13">
+        <v>0</v>
+      </c>
+      <c r="N22" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
         <v>366798</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="13">
-        <v>0</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I24" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0</v>
+      </c>
+      <c r="N24" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
+        <v>0</v>
+      </c>
+      <c r="J25" s="15">
         <v>366798</v>
       </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0</v>
-      </c>
-      <c r="I25" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K25" s="15">
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0</v>
+      </c>
+      <c r="N25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1146,34 +1436,54 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="11">
+        <v>18</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="11">
         <v>377858</v>
       </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11">
         <v>1560373</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -1184,48 +1494,78 @@
         <v>0</v>
       </c>
       <c r="G28" s="17">
+        <v>0</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <v>0</v>
+      </c>
+      <c r="K28" s="17">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17">
         <v>377858</v>
       </c>
-      <c r="H28" s="17">
-        <v>0</v>
-      </c>
-      <c r="I28" s="17">
+      <c r="M28" s="17">
+        <v>0</v>
+      </c>
+      <c r="N28" s="17">
         <v>1560373</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>13</v>
+      <c r="E29" s="15">
+        <v>0</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17">
         <v>0</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>13</v>
+      <c r="F30" s="17">
+        <v>0</v>
       </c>
       <c r="G30" s="17">
         <v>0</v>
@@ -1236,30 +1576,60 @@
       <c r="I30" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="17">
+        <v>0</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="17">
+        <v>0</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
+        <v>55181355</v>
+      </c>
+      <c r="F31" s="15">
+        <v>60853796</v>
+      </c>
+      <c r="G31" s="15">
+        <v>35581251</v>
+      </c>
+      <c r="H31" s="15">
+        <v>27845945</v>
+      </c>
+      <c r="I31" s="15">
+        <v>91040423</v>
+      </c>
+      <c r="J31" s="15">
         <v>100773407</v>
       </c>
-      <c r="F31" s="15">
-        <v>0</v>
-      </c>
-      <c r="G31" s="15">
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
         <v>92675914</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>84106475</v>
       </c>
-      <c r="I31" s="15">
+      <c r="N31" s="15">
         <v>97463160</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1268,8 +1638,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1278,8 +1653,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1288,10 +1668,15 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1310,8 +1695,23 @@
       <c r="I35" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1320,10 +1720,15 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1332,140 +1737,220 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
+        <v>10303</v>
+      </c>
+      <c r="F38" s="11">
+        <v>4658</v>
+      </c>
+      <c r="G38" s="11">
+        <v>11754</v>
+      </c>
+      <c r="H38" s="11">
+        <v>15540</v>
+      </c>
+      <c r="I38" s="11">
+        <v>12602</v>
+      </c>
+      <c r="J38" s="11">
         <v>20320</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="K38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="11">
         <v>30312</v>
       </c>
-      <c r="H38" s="11">
+      <c r="M38" s="11">
         <v>20605</v>
       </c>
-      <c r="I38" s="11">
+      <c r="N38" s="11">
         <v>40720</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
+        <v>681393</v>
+      </c>
+      <c r="F39" s="13">
+        <v>530797</v>
+      </c>
+      <c r="G39" s="13">
+        <v>10628</v>
+      </c>
+      <c r="H39" s="13">
+        <v>237935</v>
+      </c>
+      <c r="I39" s="13">
+        <v>513907</v>
+      </c>
+      <c r="J39" s="13">
         <v>531021</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="13">
+      <c r="K39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="13">
         <v>59153</v>
       </c>
-      <c r="H39" s="13">
+      <c r="M39" s="13">
         <v>259798</v>
       </c>
-      <c r="I39" s="13">
+      <c r="N39" s="13">
         <v>770973</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
+        <v>20525</v>
+      </c>
+      <c r="F40" s="11">
+        <v>30542</v>
+      </c>
+      <c r="G40" s="11">
+        <v>14254</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>2363</v>
+      </c>
+      <c r="J40" s="11">
         <v>21356</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="11">
+      <c r="K40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="11">
         <v>3319</v>
       </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
         <v>128927</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
+        <v>190131</v>
+      </c>
+      <c r="F41" s="13">
+        <v>274474</v>
+      </c>
+      <c r="G41" s="13">
+        <v>140933</v>
+      </c>
+      <c r="H41" s="13">
+        <v>91896</v>
+      </c>
+      <c r="I41" s="13">
+        <v>1084470</v>
+      </c>
+      <c r="J41" s="13">
         <v>630049</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="13">
+      <c r="K41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="13">
         <v>737557</v>
       </c>
-      <c r="H41" s="13">
+      <c r="M41" s="13">
         <v>679756</v>
       </c>
-      <c r="I41" s="13">
+      <c r="N41" s="13">
         <v>1112668</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
+        <v>321949</v>
+      </c>
+      <c r="F42" s="11">
+        <v>414446</v>
+      </c>
+      <c r="G42" s="11">
+        <v>451876</v>
+      </c>
+      <c r="H42" s="11">
+        <v>370721</v>
+      </c>
+      <c r="I42" s="11">
+        <v>493708</v>
+      </c>
+      <c r="J42" s="11">
         <v>369843</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="11">
+      <c r="K42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="11">
         <v>347717</v>
       </c>
-      <c r="H42" s="11">
+      <c r="M42" s="11">
         <v>1358975</v>
       </c>
-      <c r="I42" s="11">
+      <c r="N42" s="11">
         <v>655675</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D43" s="13"/>
-      <c r="E43" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>13</v>
+      <c r="E43" s="13">
+        <v>0</v>
+      </c>
+      <c r="F43" s="13">
+        <v>0</v>
       </c>
       <c r="G43" s="13">
         <v>0</v>
@@ -1476,32 +1961,62 @@
       <c r="I43" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="13">
+        <v>0</v>
+      </c>
+      <c r="M43" s="13">
+        <v>0</v>
+      </c>
+      <c r="N43" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
+        <v>1224301</v>
+      </c>
+      <c r="F44" s="15">
+        <v>1254917</v>
+      </c>
+      <c r="G44" s="15">
+        <v>629445</v>
+      </c>
+      <c r="H44" s="15">
+        <v>716092</v>
+      </c>
+      <c r="I44" s="15">
+        <v>2107050</v>
+      </c>
+      <c r="J44" s="15">
         <v>1572589</v>
       </c>
-      <c r="F44" s="15">
-        <v>0</v>
-      </c>
-      <c r="G44" s="15">
+      <c r="K44" s="15">
+        <v>0</v>
+      </c>
+      <c r="L44" s="15">
         <v>1178058</v>
       </c>
-      <c r="H44" s="15">
+      <c r="M44" s="15">
         <v>2319134</v>
       </c>
-      <c r="I44" s="15">
+      <c r="N44" s="15">
         <v>2708963</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -1510,20 +2025,25 @@
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>13</v>
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
       </c>
       <c r="G46" s="11">
         <v>0</v>
@@ -1534,20 +2054,35 @@
       <c r="I46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D47" s="13"/>
-      <c r="E47" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>13</v>
+      <c r="E47" s="13">
+        <v>0</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0</v>
       </c>
       <c r="G47" s="13">
         <v>0</v>
@@ -1558,20 +2093,35 @@
       <c r="I47" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="13">
+        <v>0</v>
+      </c>
+      <c r="M47" s="13">
+        <v>0</v>
+      </c>
+      <c r="N47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>13</v>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
       </c>
       <c r="G48" s="11">
         <v>0</v>
@@ -1582,20 +2132,35 @@
       <c r="I48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D49" s="13"/>
-      <c r="E49" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>13</v>
+      <c r="E49" s="13">
+        <v>0</v>
+      </c>
+      <c r="F49" s="13">
+        <v>0</v>
       </c>
       <c r="G49" s="13">
         <v>0</v>
@@ -1606,80 +2171,140 @@
       <c r="I49" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="13">
+        <v>0</v>
+      </c>
+      <c r="M49" s="13">
+        <v>0</v>
+      </c>
+      <c r="N49" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11">
         <v>14597</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="11">
-        <v>0</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="11">
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0</v>
+      </c>
+      <c r="N50" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="13">
-        <v>0</v>
-      </c>
-      <c r="H51" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="13">
+        <v>0</v>
+      </c>
+      <c r="M51" s="13">
+        <v>0</v>
+      </c>
+      <c r="N51" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15">
+        <v>0</v>
+      </c>
+      <c r="F52" s="15">
+        <v>0</v>
+      </c>
+      <c r="G52" s="15">
+        <v>0</v>
+      </c>
+      <c r="H52" s="15">
+        <v>0</v>
+      </c>
+      <c r="I52" s="15">
+        <v>0</v>
+      </c>
+      <c r="J52" s="15">
         <v>14597</v>
       </c>
-      <c r="F52" s="15">
-        <v>0</v>
-      </c>
-      <c r="G52" s="15">
-        <v>0</v>
-      </c>
-      <c r="H52" s="15">
-        <v>0</v>
-      </c>
-      <c r="I52" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K52" s="15">
+        <v>0</v>
+      </c>
+      <c r="L52" s="15">
+        <v>0</v>
+      </c>
+      <c r="M52" s="15">
+        <v>0</v>
+      </c>
+      <c r="N52" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -1688,34 +2313,54 @@
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="11">
+        <v>18</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="11">
         <v>46070</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>42922</v>
       </c>
-      <c r="I54" s="11">
+      <c r="N54" s="11">
         <v>18613</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -1726,86 +2371,146 @@
         <v>0</v>
       </c>
       <c r="G55" s="17">
+        <v>0</v>
+      </c>
+      <c r="H55" s="17">
+        <v>0</v>
+      </c>
+      <c r="I55" s="17">
+        <v>0</v>
+      </c>
+      <c r="J55" s="17">
+        <v>0</v>
+      </c>
+      <c r="K55" s="17">
+        <v>0</v>
+      </c>
+      <c r="L55" s="17">
         <v>46070</v>
       </c>
-      <c r="H55" s="17">
+      <c r="M55" s="17">
         <v>42922</v>
       </c>
-      <c r="I55" s="17">
+      <c r="N55" s="17">
         <v>18613</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D56" s="15"/>
-      <c r="E56" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>13</v>
+      <c r="E56" s="15">
+        <v>-3547</v>
+      </c>
+      <c r="F56" s="15">
+        <v>-80979</v>
+      </c>
+      <c r="G56" s="15">
+        <v>116128</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N56" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17">
+        <v>-142059</v>
+      </c>
+      <c r="F57" s="17">
+        <v>-78349</v>
+      </c>
+      <c r="G57" s="17">
+        <v>-40756</v>
+      </c>
+      <c r="H57" s="17">
+        <v>-40336</v>
+      </c>
+      <c r="I57" s="17">
+        <v>-172857</v>
+      </c>
+      <c r="J57" s="17">
         <v>-140160</v>
       </c>
-      <c r="F57" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="17">
+      <c r="K57" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="17">
         <v>-134349</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>-274170</v>
       </c>
-      <c r="I57" s="17">
+      <c r="N57" s="17">
         <v>-287425</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15">
+        <v>1078695</v>
+      </c>
+      <c r="F58" s="15">
+        <v>1095589</v>
+      </c>
+      <c r="G58" s="15">
+        <v>704817</v>
+      </c>
+      <c r="H58" s="15">
+        <v>675756</v>
+      </c>
+      <c r="I58" s="15">
+        <v>1934193</v>
+      </c>
+      <c r="J58" s="15">
         <v>1447026</v>
       </c>
-      <c r="F58" s="15">
-        <v>0</v>
-      </c>
-      <c r="G58" s="15">
+      <c r="K58" s="15">
+        <v>0</v>
+      </c>
+      <c r="L58" s="15">
         <v>1089779</v>
       </c>
-      <c r="H58" s="15">
+      <c r="M58" s="15">
         <v>2087886</v>
       </c>
-      <c r="I58" s="15">
+      <c r="N58" s="15">
         <v>2440151</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1814,8 +2519,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1824,8 +2534,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1834,10 +2549,15 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1856,8 +2576,23 @@
       <c r="I62" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1866,10 +2601,15 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -1878,154 +2618,249 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
+        <v>29276</v>
+      </c>
+      <c r="F65" s="11">
+        <v>40058</v>
+      </c>
+      <c r="G65" s="11">
+        <v>40061</v>
+      </c>
+      <c r="H65" s="11">
+        <v>38294</v>
+      </c>
+      <c r="I65" s="11">
+        <v>49771</v>
+      </c>
+      <c r="J65" s="11">
         <v>52999</v>
       </c>
-      <c r="F65" s="11">
+      <c r="K65" s="11">
         <v>53000</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>52999</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>64184</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>64828</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
+        <v>360827</v>
+      </c>
+      <c r="F66" s="13">
+        <v>326882</v>
+      </c>
+      <c r="G66" s="13">
+        <v>32561</v>
+      </c>
+      <c r="H66" s="13">
+        <v>315624</v>
+      </c>
+      <c r="I66" s="13">
+        <v>357383</v>
+      </c>
+      <c r="J66" s="13">
         <v>309332</v>
       </c>
-      <c r="F66" s="13">
+      <c r="K66" s="13">
         <v>217098</v>
       </c>
-      <c r="G66" s="13">
+      <c r="L66" s="13">
         <v>141438</v>
       </c>
-      <c r="H66" s="13">
+      <c r="M66" s="13">
         <v>339180</v>
       </c>
-      <c r="I66" s="13">
+      <c r="N66" s="13">
         <v>359775</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
+        <v>52252</v>
+      </c>
+      <c r="F67" s="11">
+        <v>59531</v>
+      </c>
+      <c r="G67" s="11">
+        <v>69977</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="11">
+        <v>67514</v>
+      </c>
+      <c r="J67" s="11">
         <v>55717</v>
       </c>
-      <c r="F67" s="11">
+      <c r="K67" s="11">
         <v>75426</v>
       </c>
-      <c r="G67" s="11">
+      <c r="L67" s="11">
         <v>74999</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="11">
+      <c r="M67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="11">
         <v>200874</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
+        <v>4283</v>
+      </c>
+      <c r="F68" s="13">
+        <v>5296</v>
+      </c>
+      <c r="G68" s="13">
+        <v>5903</v>
+      </c>
+      <c r="H68" s="13">
+        <v>4544</v>
+      </c>
+      <c r="I68" s="13">
+        <v>8224</v>
+      </c>
+      <c r="J68" s="13">
         <v>6952</v>
       </c>
-      <c r="F68" s="13">
+      <c r="K68" s="13">
         <v>6768</v>
       </c>
-      <c r="G68" s="13">
+      <c r="L68" s="13">
         <v>8946</v>
       </c>
-      <c r="H68" s="13">
+      <c r="M68" s="13">
         <v>8975</v>
       </c>
-      <c r="I68" s="13">
+      <c r="N68" s="13">
         <v>12784</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
+        <v>39469</v>
+      </c>
+      <c r="F69" s="11">
+        <v>50366</v>
+      </c>
+      <c r="G69" s="11">
+        <v>41525</v>
+      </c>
+      <c r="H69" s="11">
+        <v>57358</v>
+      </c>
+      <c r="I69" s="11">
+        <v>46901</v>
+      </c>
+      <c r="J69" s="11">
         <v>50687</v>
       </c>
-      <c r="F69" s="11">
+      <c r="K69" s="11">
         <v>62758</v>
       </c>
-      <c r="G69" s="11">
+      <c r="L69" s="11">
         <v>39449</v>
       </c>
-      <c r="H69" s="11">
+      <c r="M69" s="11">
         <v>186687</v>
       </c>
-      <c r="I69" s="11">
+      <c r="N69" s="11">
         <v>120156</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -2034,154 +2869,249 @@
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N73" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11">
+      <c r="E76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" s="11">
         <v>39796</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N77" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -2190,32 +3120,52 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2224,8 +3174,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2234,8 +3189,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2244,10 +3204,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2266,8 +3231,23 @@
       <c r="I83" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2276,10 +3256,15 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -2288,137 +3273,217 @@
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>-8767</v>
+      </c>
+      <c r="F86" s="11">
+        <v>-3060</v>
+      </c>
+      <c r="G86" s="11">
+        <v>-9645</v>
+      </c>
+      <c r="H86" s="11">
+        <v>-12447</v>
+      </c>
+      <c r="I86" s="11">
+        <v>-11760</v>
+      </c>
+      <c r="J86" s="11">
         <v>-14979</v>
       </c>
-      <c r="F86" s="11">
+      <c r="K86" s="11">
         <v>-2472</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>-27694</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>-17797</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>-33584</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13">
+        <v>-284030</v>
+      </c>
+      <c r="F87" s="13">
+        <v>-187121</v>
+      </c>
+      <c r="G87" s="13">
+        <v>-105653</v>
+      </c>
+      <c r="H87" s="13">
+        <v>-135176</v>
+      </c>
+      <c r="I87" s="13">
+        <v>-387818</v>
+      </c>
+      <c r="J87" s="13">
         <v>-312528</v>
       </c>
-      <c r="F87" s="13">
+      <c r="K87" s="13">
         <v>-157557</v>
       </c>
-      <c r="G87" s="13">
+      <c r="L87" s="13">
         <v>-64212</v>
       </c>
-      <c r="H87" s="13">
+      <c r="M87" s="13">
         <v>-182319</v>
       </c>
-      <c r="I87" s="13">
+      <c r="N87" s="13">
         <v>-608505</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
+        <v>-23209</v>
+      </c>
+      <c r="F88" s="11">
+        <v>-22554</v>
+      </c>
+      <c r="G88" s="11">
+        <v>-14156</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0</v>
+      </c>
+      <c r="I88" s="11">
+        <v>-2050</v>
+      </c>
+      <c r="J88" s="11">
         <v>-16342</v>
       </c>
-      <c r="F88" s="11">
+      <c r="K88" s="11">
         <v>-9543</v>
       </c>
-      <c r="G88" s="11">
+      <c r="L88" s="11">
         <v>-911</v>
       </c>
-      <c r="H88" s="11">
+      <c r="M88" s="11">
         <v>-2069</v>
       </c>
-      <c r="I88" s="11">
+      <c r="N88" s="11">
         <v>-94989</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
+        <v>-144720</v>
+      </c>
+      <c r="F89" s="13">
+        <v>-176297</v>
+      </c>
+      <c r="G89" s="13">
+        <v>-144613</v>
+      </c>
+      <c r="H89" s="13">
+        <v>-84797</v>
+      </c>
+      <c r="I89" s="13">
+        <v>-606505</v>
+      </c>
+      <c r="J89" s="13">
         <v>-386905</v>
       </c>
-      <c r="F89" s="13">
+      <c r="K89" s="13">
         <v>-283421</v>
       </c>
-      <c r="G89" s="13">
+      <c r="L89" s="13">
         <v>-419829</v>
       </c>
-      <c r="H89" s="13">
+      <c r="M89" s="13">
         <v>-419682</v>
       </c>
-      <c r="I89" s="13">
+      <c r="N89" s="13">
         <v>-632938</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>-126537</v>
+      </c>
+      <c r="F90" s="11">
+        <v>-247577</v>
+      </c>
+      <c r="G90" s="11">
+        <v>-210243</v>
+      </c>
+      <c r="H90" s="11">
+        <v>-251379</v>
+      </c>
+      <c r="I90" s="11">
+        <v>-247733</v>
+      </c>
+      <c r="J90" s="11">
         <v>-273294</v>
       </c>
-      <c r="F90" s="11">
+      <c r="K90" s="11">
         <v>-249727</v>
       </c>
-      <c r="G90" s="11">
+      <c r="L90" s="11">
         <v>-260505</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>-769179</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>-269139</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D91" s="13"/>
-      <c r="E91" s="13" t="s">
-        <v>13</v>
+      <c r="E91" s="13">
+        <v>0</v>
       </c>
       <c r="F91" s="13">
         <v>0</v>
@@ -2432,32 +3497,62 @@
       <c r="I91" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" s="13">
+        <v>0</v>
+      </c>
+      <c r="L91" s="13">
+        <v>0</v>
+      </c>
+      <c r="M91" s="13">
+        <v>0</v>
+      </c>
+      <c r="N91" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
+        <v>-587263</v>
+      </c>
+      <c r="F92" s="15">
+        <v>-636609</v>
+      </c>
+      <c r="G92" s="15">
+        <v>-484310</v>
+      </c>
+      <c r="H92" s="15">
+        <v>-483799</v>
+      </c>
+      <c r="I92" s="15">
+        <v>-1255866</v>
+      </c>
+      <c r="J92" s="15">
         <v>-1004048</v>
       </c>
-      <c r="F92" s="15">
+      <c r="K92" s="15">
         <v>-702720</v>
       </c>
-      <c r="G92" s="15">
+      <c r="L92" s="15">
         <v>-773151</v>
       </c>
-      <c r="H92" s="15">
+      <c r="M92" s="15">
         <v>-1391046</v>
       </c>
-      <c r="I92" s="15">
+      <c r="N92" s="15">
         <v>-1639155</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -2466,17 +3561,22 @@
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>13</v>
+      <c r="E94" s="11">
+        <v>0</v>
       </c>
       <c r="F94" s="11">
         <v>0</v>
@@ -2490,17 +3590,32 @@
       <c r="I94" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" s="11">
+        <v>0</v>
+      </c>
+      <c r="L94" s="11">
+        <v>0</v>
+      </c>
+      <c r="M94" s="11">
+        <v>0</v>
+      </c>
+      <c r="N94" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D95" s="13"/>
-      <c r="E95" s="13" t="s">
-        <v>13</v>
+      <c r="E95" s="13">
+        <v>0</v>
       </c>
       <c r="F95" s="13">
         <v>0</v>
@@ -2514,17 +3629,32 @@
       <c r="I95" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" s="13">
+        <v>0</v>
+      </c>
+      <c r="L95" s="13">
+        <v>0</v>
+      </c>
+      <c r="M95" s="13">
+        <v>0</v>
+      </c>
+      <c r="N95" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="11" t="s">
-        <v>13</v>
+      <c r="E96" s="11">
+        <v>0</v>
       </c>
       <c r="F96" s="11">
         <v>0</v>
@@ -2538,17 +3668,32 @@
       <c r="I96" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" s="11">
+        <v>0</v>
+      </c>
+      <c r="L96" s="11">
+        <v>0</v>
+      </c>
+      <c r="M96" s="11">
+        <v>0</v>
+      </c>
+      <c r="N96" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D97" s="13"/>
-      <c r="E97" s="13" t="s">
-        <v>13</v>
+      <c r="E97" s="13">
+        <v>0</v>
       </c>
       <c r="F97" s="13">
         <v>0</v>
@@ -2562,80 +3707,140 @@
       <c r="I97" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="13">
+        <v>0</v>
+      </c>
+      <c r="L97" s="13">
+        <v>0</v>
+      </c>
+      <c r="M97" s="13">
+        <v>0</v>
+      </c>
+      <c r="N97" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
+        <v>0</v>
+      </c>
+      <c r="F98" s="11">
+        <v>0</v>
+      </c>
+      <c r="G98" s="11">
+        <v>0</v>
+      </c>
+      <c r="H98" s="11">
+        <v>0</v>
+      </c>
+      <c r="I98" s="11">
+        <v>0</v>
+      </c>
+      <c r="J98" s="11">
         <v>-13306</v>
       </c>
-      <c r="F98" s="11">
-        <v>0</v>
-      </c>
-      <c r="G98" s="11">
-        <v>0</v>
-      </c>
-      <c r="H98" s="11">
-        <v>0</v>
-      </c>
-      <c r="I98" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K98" s="11">
+        <v>0</v>
+      </c>
+      <c r="L98" s="11">
+        <v>0</v>
+      </c>
+      <c r="M98" s="11">
+        <v>0</v>
+      </c>
+      <c r="N98" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="13">
-        <v>0</v>
-      </c>
-      <c r="H99" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I99" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99" s="13">
+        <v>0</v>
+      </c>
+      <c r="M99" s="13">
+        <v>0</v>
+      </c>
+      <c r="N99" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15">
+        <v>0</v>
+      </c>
+      <c r="F100" s="15">
+        <v>0</v>
+      </c>
+      <c r="G100" s="15">
+        <v>0</v>
+      </c>
+      <c r="H100" s="15">
+        <v>0</v>
+      </c>
+      <c r="I100" s="15">
+        <v>0</v>
+      </c>
+      <c r="J100" s="15">
         <v>-13306</v>
       </c>
-      <c r="F100" s="15">
-        <v>0</v>
-      </c>
-      <c r="G100" s="15">
-        <v>0</v>
-      </c>
-      <c r="H100" s="15">
-        <v>0</v>
-      </c>
-      <c r="I100" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K100" s="15">
+        <v>0</v>
+      </c>
+      <c r="L100" s="15">
+        <v>0</v>
+      </c>
+      <c r="M100" s="15">
+        <v>0</v>
+      </c>
+      <c r="N100" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
@@ -2644,34 +3849,54 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="11">
+        <v>18</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="11">
         <v>-53693</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>-39548</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>-34911</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>-11092</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -2679,48 +3904,78 @@
         <v>0</v>
       </c>
       <c r="F103" s="17">
+        <v>0</v>
+      </c>
+      <c r="G103" s="17">
+        <v>0</v>
+      </c>
+      <c r="H103" s="17">
+        <v>0</v>
+      </c>
+      <c r="I103" s="17">
+        <v>0</v>
+      </c>
+      <c r="J103" s="17">
+        <v>0</v>
+      </c>
+      <c r="K103" s="17">
         <v>-53693</v>
       </c>
-      <c r="G103" s="17">
+      <c r="L103" s="17">
         <v>-39548</v>
       </c>
-      <c r="H103" s="17">
+      <c r="M103" s="17">
         <v>-34911</v>
       </c>
-      <c r="I103" s="17">
+      <c r="N103" s="17">
         <v>-11092</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D104" s="15"/>
-      <c r="E104" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>13</v>
+      <c r="E104" s="15">
+        <v>0</v>
+      </c>
+      <c r="F104" s="15">
+        <v>0</v>
+      </c>
+      <c r="G104" s="15">
+        <v>0</v>
       </c>
       <c r="H104" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I104" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J104" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L104" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M104" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N104" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="17">
@@ -2738,30 +3993,60 @@
       <c r="I105" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="17">
+        <v>0</v>
+      </c>
+      <c r="K105" s="17">
+        <v>0</v>
+      </c>
+      <c r="L105" s="17">
+        <v>0</v>
+      </c>
+      <c r="M105" s="17">
+        <v>0</v>
+      </c>
+      <c r="N105" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15">
+        <v>-587263</v>
+      </c>
+      <c r="F106" s="15">
+        <v>-636609</v>
+      </c>
+      <c r="G106" s="15">
+        <v>-484310</v>
+      </c>
+      <c r="H106" s="15">
+        <v>-483799</v>
+      </c>
+      <c r="I106" s="15">
+        <v>-1255866</v>
+      </c>
+      <c r="J106" s="15">
         <v>-1017354</v>
       </c>
-      <c r="F106" s="15">
+      <c r="K106" s="15">
         <v>-756413</v>
       </c>
-      <c r="G106" s="15">
+      <c r="L106" s="15">
         <v>-812699</v>
       </c>
-      <c r="H106" s="15">
+      <c r="M106" s="15">
         <v>-1425957</v>
       </c>
-      <c r="I106" s="15">
+      <c r="N106" s="15">
         <v>-1650247</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2770,8 +4055,13 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2780,8 +4070,13 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2790,10 +4085,15 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -2812,8 +4112,23 @@
       <c r="I110" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2822,10 +4137,15 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -2834,137 +4154,217 @@
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11">
+        <v>1536</v>
+      </c>
+      <c r="F113" s="11">
+        <v>1598</v>
+      </c>
+      <c r="G113" s="11">
+        <v>2109</v>
+      </c>
+      <c r="H113" s="11">
+        <v>3093</v>
+      </c>
+      <c r="I113" s="11">
+        <v>842</v>
+      </c>
+      <c r="J113" s="11">
         <v>5341</v>
       </c>
-      <c r="F113" s="11">
+      <c r="K113" s="11">
         <v>708</v>
       </c>
-      <c r="G113" s="11">
+      <c r="L113" s="11">
         <v>2618</v>
       </c>
-      <c r="H113" s="11">
+      <c r="M113" s="11">
         <v>2808</v>
       </c>
-      <c r="I113" s="11">
+      <c r="N113" s="11">
         <v>7136</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
+        <v>397363</v>
+      </c>
+      <c r="F114" s="13">
+        <v>341865</v>
+      </c>
+      <c r="G114" s="13">
+        <v>-95025</v>
+      </c>
+      <c r="H114" s="13">
+        <v>102759</v>
+      </c>
+      <c r="I114" s="13">
+        <v>126089</v>
+      </c>
+      <c r="J114" s="13">
         <v>218493</v>
       </c>
-      <c r="F114" s="13">
+      <c r="K114" s="13">
         <v>104935</v>
       </c>
-      <c r="G114" s="13">
+      <c r="L114" s="13">
         <v>-5059</v>
       </c>
-      <c r="H114" s="13">
+      <c r="M114" s="13">
         <v>77479</v>
       </c>
-      <c r="I114" s="13">
+      <c r="N114" s="13">
         <v>162468</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11">
+        <v>-2684</v>
+      </c>
+      <c r="F115" s="11">
+        <v>7988</v>
+      </c>
+      <c r="G115" s="11">
+        <v>98</v>
+      </c>
+      <c r="H115" s="11">
+        <v>0</v>
+      </c>
+      <c r="I115" s="11">
+        <v>313</v>
+      </c>
+      <c r="J115" s="11">
         <v>5014</v>
       </c>
-      <c r="F115" s="11">
+      <c r="K115" s="11">
         <v>17962</v>
       </c>
-      <c r="G115" s="11">
+      <c r="L115" s="11">
         <v>2408</v>
       </c>
-      <c r="H115" s="11">
+      <c r="M115" s="11">
         <v>-2069</v>
       </c>
-      <c r="I115" s="11">
+      <c r="N115" s="11">
         <v>33938</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13">
+        <v>45411</v>
+      </c>
+      <c r="F116" s="13">
+        <v>91773</v>
+      </c>
+      <c r="G116" s="13">
+        <v>-3680</v>
+      </c>
+      <c r="H116" s="13">
+        <v>7099</v>
+      </c>
+      <c r="I116" s="13">
+        <v>477965</v>
+      </c>
+      <c r="J116" s="13">
         <v>243144</v>
       </c>
-      <c r="F116" s="13">
+      <c r="K116" s="13">
         <v>119257</v>
       </c>
-      <c r="G116" s="13">
+      <c r="L116" s="13">
         <v>317728</v>
       </c>
-      <c r="H116" s="13">
+      <c r="M116" s="13">
         <v>260074</v>
       </c>
-      <c r="I116" s="13">
+      <c r="N116" s="13">
         <v>479730</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
+        <v>195412</v>
+      </c>
+      <c r="F117" s="11">
+        <v>137456</v>
+      </c>
+      <c r="G117" s="11">
+        <v>241633</v>
+      </c>
+      <c r="H117" s="11">
+        <v>119342</v>
+      </c>
+      <c r="I117" s="11">
+        <v>245975</v>
+      </c>
+      <c r="J117" s="11">
         <v>96549</v>
       </c>
-      <c r="F117" s="11">
+      <c r="K117" s="11">
         <v>162089</v>
       </c>
-      <c r="G117" s="11">
+      <c r="L117" s="11">
         <v>87212</v>
       </c>
-      <c r="H117" s="11">
+      <c r="M117" s="11">
         <v>589796</v>
       </c>
-      <c r="I117" s="11">
+      <c r="N117" s="11">
         <v>386536</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D118" s="13"/>
-      <c r="E118" s="13" t="s">
-        <v>13</v>
+      <c r="E118" s="13">
+        <v>0</v>
       </c>
       <c r="F118" s="13">
         <v>0</v>
@@ -2978,32 +4378,62 @@
       <c r="I118" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" s="13">
+        <v>0</v>
+      </c>
+      <c r="L118" s="13">
+        <v>0</v>
+      </c>
+      <c r="M118" s="13">
+        <v>0</v>
+      </c>
+      <c r="N118" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
+        <v>637038</v>
+      </c>
+      <c r="F119" s="15">
+        <v>580680</v>
+      </c>
+      <c r="G119" s="15">
+        <v>145135</v>
+      </c>
+      <c r="H119" s="15">
+        <v>232293</v>
+      </c>
+      <c r="I119" s="15">
+        <v>851184</v>
+      </c>
+      <c r="J119" s="15">
         <v>568541</v>
       </c>
-      <c r="F119" s="15">
+      <c r="K119" s="15">
         <v>404951</v>
       </c>
-      <c r="G119" s="15">
+      <c r="L119" s="15">
         <v>404907</v>
       </c>
-      <c r="H119" s="15">
+      <c r="M119" s="15">
         <v>928088</v>
       </c>
-      <c r="I119" s="15">
+      <c r="N119" s="15">
         <v>1069808</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -3012,17 +4442,22 @@
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="11" t="s">
-        <v>13</v>
+      <c r="E121" s="11">
+        <v>0</v>
       </c>
       <c r="F121" s="11">
         <v>0</v>
@@ -3036,17 +4471,32 @@
       <c r="I121" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K121" s="11">
+        <v>0</v>
+      </c>
+      <c r="L121" s="11">
+        <v>0</v>
+      </c>
+      <c r="M121" s="11">
+        <v>0</v>
+      </c>
+      <c r="N121" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D122" s="13"/>
-      <c r="E122" s="13" t="s">
-        <v>13</v>
+      <c r="E122" s="13">
+        <v>0</v>
       </c>
       <c r="F122" s="13">
         <v>0</v>
@@ -3060,17 +4510,32 @@
       <c r="I122" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K122" s="13">
+        <v>0</v>
+      </c>
+      <c r="L122" s="13">
+        <v>0</v>
+      </c>
+      <c r="M122" s="13">
+        <v>0</v>
+      </c>
+      <c r="N122" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D123" s="11"/>
-      <c r="E123" s="11" t="s">
-        <v>13</v>
+      <c r="E123" s="11">
+        <v>0</v>
       </c>
       <c r="F123" s="11">
         <v>0</v>
@@ -3084,17 +4549,32 @@
       <c r="I123" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K123" s="11">
+        <v>0</v>
+      </c>
+      <c r="L123" s="11">
+        <v>0</v>
+      </c>
+      <c r="M123" s="11">
+        <v>0</v>
+      </c>
+      <c r="N123" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D124" s="13"/>
-      <c r="E124" s="13" t="s">
-        <v>13</v>
+      <c r="E124" s="13">
+        <v>0</v>
       </c>
       <c r="F124" s="13">
         <v>0</v>
@@ -3108,80 +4588,140 @@
       <c r="I124" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" s="13">
+        <v>0</v>
+      </c>
+      <c r="L124" s="13">
+        <v>0</v>
+      </c>
+      <c r="M124" s="13">
+        <v>0</v>
+      </c>
+      <c r="N124" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
+        <v>0</v>
+      </c>
+      <c r="F125" s="11">
+        <v>0</v>
+      </c>
+      <c r="G125" s="11">
+        <v>0</v>
+      </c>
+      <c r="H125" s="11">
+        <v>0</v>
+      </c>
+      <c r="I125" s="11">
+        <v>0</v>
+      </c>
+      <c r="J125" s="11">
         <v>1291</v>
       </c>
-      <c r="F125" s="11">
-        <v>0</v>
-      </c>
-      <c r="G125" s="11">
-        <v>0</v>
-      </c>
-      <c r="H125" s="11">
-        <v>0</v>
-      </c>
-      <c r="I125" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K125" s="11">
+        <v>0</v>
+      </c>
+      <c r="L125" s="11">
+        <v>0</v>
+      </c>
+      <c r="M125" s="11">
+        <v>0</v>
+      </c>
+      <c r="N125" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" s="13">
-        <v>0</v>
-      </c>
-      <c r="H126" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I126" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L126" s="13">
+        <v>0</v>
+      </c>
+      <c r="M126" s="13">
+        <v>0</v>
+      </c>
+      <c r="N126" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15">
+        <v>0</v>
+      </c>
+      <c r="F127" s="15">
+        <v>0</v>
+      </c>
+      <c r="G127" s="15">
+        <v>0</v>
+      </c>
+      <c r="H127" s="15">
+        <v>0</v>
+      </c>
+      <c r="I127" s="15">
+        <v>0</v>
+      </c>
+      <c r="J127" s="15">
         <v>1291</v>
       </c>
-      <c r="F127" s="15">
-        <v>0</v>
-      </c>
-      <c r="G127" s="15">
-        <v>0</v>
-      </c>
-      <c r="H127" s="15">
-        <v>0</v>
-      </c>
-      <c r="I127" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K127" s="15">
+        <v>0</v>
+      </c>
+      <c r="L127" s="15">
+        <v>0</v>
+      </c>
+      <c r="M127" s="15">
+        <v>0</v>
+      </c>
+      <c r="N127" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
@@ -3190,34 +4730,54 @@
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" s="11">
+        <v>18</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K129" s="11">
         <v>35180</v>
       </c>
-      <c r="G129" s="11">
+      <c r="L129" s="11">
         <v>6522</v>
       </c>
-      <c r="H129" s="11">
+      <c r="M129" s="11">
         <v>8011</v>
       </c>
-      <c r="I129" s="11">
+      <c r="N129" s="11">
         <v>7521</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
@@ -3225,37 +4785,67 @@
         <v>0</v>
       </c>
       <c r="F130" s="17">
+        <v>0</v>
+      </c>
+      <c r="G130" s="17">
+        <v>0</v>
+      </c>
+      <c r="H130" s="17">
+        <v>0</v>
+      </c>
+      <c r="I130" s="17">
+        <v>0</v>
+      </c>
+      <c r="J130" s="17">
+        <v>0</v>
+      </c>
+      <c r="K130" s="17">
         <v>35180</v>
       </c>
-      <c r="G130" s="17">
+      <c r="L130" s="17">
         <v>6522</v>
       </c>
-      <c r="H130" s="17">
+      <c r="M130" s="17">
         <v>8011</v>
       </c>
-      <c r="I130" s="17">
+      <c r="N130" s="17">
         <v>7521</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
+        <v>637038</v>
+      </c>
+      <c r="F131" s="15">
+        <v>580680</v>
+      </c>
+      <c r="G131" s="15">
+        <v>145135</v>
+      </c>
+      <c r="H131" s="15">
+        <v>232293</v>
+      </c>
+      <c r="I131" s="15">
+        <v>851184</v>
+      </c>
+      <c r="J131" s="15">
         <v>569832</v>
       </c>
-      <c r="F131" s="15">
+      <c r="K131" s="15">
         <v>440131</v>
       </c>
-      <c r="G131" s="15">
+      <c r="L131" s="15">
         <v>411429</v>
       </c>
-      <c r="H131" s="15">
+      <c r="M131" s="15">
         <v>936099</v>
       </c>
-      <c r="I131" s="15">
+      <c r="N131" s="15">
         <v>1077329</v>
       </c>
     </row>

--- a/database/industries/darou/dejaber/product/quarterly_seprated.xlsx
+++ b/database/industries/darou/dejaber/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA48DFE-DE4B-4599-BE85-0C36C7E779DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFACE95A-723A-46AA-8C00-4432E47E4C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="61">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -679,12 +679,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -699,7 +699,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -733,7 +733,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -748,7 +748,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -797,7 +797,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -834,7 +834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -849,7 +849,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -875,37 +875,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>351930</v>
+        <v>116280</v>
       </c>
       <c r="F11" s="11">
-        <v>116280</v>
+        <v>293400</v>
       </c>
       <c r="G11" s="11">
-        <v>293400</v>
+        <v>405810</v>
       </c>
       <c r="H11" s="11">
-        <v>405810</v>
+        <v>253200</v>
       </c>
       <c r="I11" s="11">
-        <v>253200</v>
-      </c>
-      <c r="J11" s="11">
         <v>383400</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>18</v>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11">
+        <v>571937</v>
       </c>
       <c r="L11" s="11">
-        <v>571937</v>
+        <v>321032</v>
       </c>
       <c r="M11" s="11">
-        <v>321032</v>
+        <v>628127</v>
       </c>
       <c r="N11" s="11">
-        <v>628127</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>294791</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -914,37 +914,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>1888422</v>
+        <v>1643550</v>
       </c>
       <c r="F12" s="13">
-        <v>1643550</v>
+        <v>326400</v>
       </c>
       <c r="G12" s="13">
-        <v>326400</v>
+        <v>753857</v>
       </c>
       <c r="H12" s="13">
-        <v>753857</v>
+        <v>1437973</v>
       </c>
       <c r="I12" s="13">
-        <v>1437973</v>
-      </c>
-      <c r="J12" s="13">
         <v>1716668</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>18</v>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="13">
+        <v>418225</v>
       </c>
       <c r="L12" s="13">
-        <v>418225</v>
+        <v>765958</v>
       </c>
       <c r="M12" s="13">
-        <v>765958</v>
+        <v>2142929</v>
       </c>
       <c r="N12" s="13">
-        <v>2142929</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>673764</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
@@ -953,37 +953,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>392810</v>
+        <v>513046</v>
       </c>
       <c r="F13" s="11">
-        <v>513046</v>
+        <v>203696</v>
       </c>
       <c r="G13" s="11">
-        <v>203696</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11">
-        <v>0</v>
+        <v>-1130181</v>
       </c>
       <c r="I13" s="11">
-        <v>-1130181</v>
-      </c>
-      <c r="J13" s="11">
         <v>383295</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>18</v>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11">
+        <v>44254</v>
       </c>
       <c r="L13" s="11">
-        <v>44254</v>
+        <v>0</v>
       </c>
       <c r="M13" s="11">
-        <v>0</v>
+        <v>641831</v>
       </c>
       <c r="N13" s="11">
-        <v>641831</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>677852</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
@@ -992,37 +992,37 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>44391168</v>
+        <v>50631794</v>
       </c>
       <c r="F14" s="13">
-        <v>50631794</v>
+        <v>23875824</v>
       </c>
       <c r="G14" s="13">
-        <v>23875824</v>
+        <v>20222968</v>
       </c>
       <c r="H14" s="13">
-        <v>20222968</v>
+        <v>79952906</v>
       </c>
       <c r="I14" s="13">
-        <v>79952906</v>
-      </c>
-      <c r="J14" s="13">
         <v>90626626</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>18</v>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13">
+        <v>82449360</v>
       </c>
       <c r="L14" s="13">
-        <v>82449360</v>
+        <v>75740060</v>
       </c>
       <c r="M14" s="13">
-        <v>75740060</v>
+        <v>87033020</v>
       </c>
       <c r="N14" s="13">
-        <v>87033020</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>91456070</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
@@ -1031,37 +1031,37 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>8157025</v>
+        <v>7949126</v>
       </c>
       <c r="F15" s="11">
-        <v>7949126</v>
+        <v>10881931</v>
       </c>
       <c r="G15" s="11">
-        <v>10881931</v>
+        <v>6463310</v>
       </c>
       <c r="H15" s="11">
-        <v>6463310</v>
+        <v>10526525</v>
       </c>
       <c r="I15" s="11">
-        <v>10526525</v>
-      </c>
-      <c r="J15" s="11">
         <v>7296620</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>18</v>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11">
+        <v>8814280</v>
       </c>
       <c r="L15" s="11">
-        <v>8814280</v>
+        <v>7279425</v>
       </c>
       <c r="M15" s="11">
-        <v>7279425</v>
+        <v>5456880</v>
       </c>
       <c r="N15" s="11">
-        <v>5456880</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5117372</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>25</v>
       </c>
@@ -1081,14 +1081,14 @@
       <c r="H16" s="13">
         <v>0</v>
       </c>
-      <c r="I16" s="13">
-        <v>0</v>
+      <c r="I16" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>18</v>
+      <c r="K16" s="13">
+        <v>0</v>
       </c>
       <c r="L16" s="13">
         <v>0</v>
@@ -1100,44 +1100,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15">
-        <v>55181355</v>
+        <v>60853796</v>
       </c>
       <c r="F17" s="15">
-        <v>60853796</v>
+        <v>35581251</v>
       </c>
       <c r="G17" s="15">
-        <v>35581251</v>
+        <v>27845945</v>
       </c>
       <c r="H17" s="15">
-        <v>27845945</v>
+        <v>91040423</v>
       </c>
       <c r="I17" s="15">
-        <v>91040423</v>
+        <v>100406609</v>
       </c>
       <c r="J17" s="15">
-        <v>100406609</v>
+        <v>0</v>
       </c>
       <c r="K17" s="15">
-        <v>0</v>
+        <v>92298056</v>
       </c>
       <c r="L17" s="15">
-        <v>92298056</v>
+        <v>84106475</v>
       </c>
       <c r="M17" s="15">
-        <v>84106475</v>
+        <v>95902787</v>
       </c>
       <c r="N17" s="15">
-        <v>95902787</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>98219849</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>27</v>
       </c>
@@ -1154,7 +1154,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
@@ -1174,14 +1174,14 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-      <c r="I19" s="11">
-        <v>0</v>
+      <c r="I19" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>18</v>
+      <c r="K19" s="11">
+        <v>0</v>
       </c>
       <c r="L19" s="11">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>19</v>
       </c>
@@ -1213,14 +1213,14 @@
       <c r="H20" s="13">
         <v>0</v>
       </c>
-      <c r="I20" s="13">
-        <v>0</v>
+      <c r="I20" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>18</v>
+      <c r="K20" s="13">
+        <v>0</v>
       </c>
       <c r="L20" s="13">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>21</v>
       </c>
@@ -1252,14 +1252,14 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
+      <c r="I21" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="11" t="s">
-        <v>18</v>
+      <c r="K21" s="11">
+        <v>0</v>
       </c>
       <c r="L21" s="11">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
@@ -1291,14 +1291,14 @@
       <c r="H22" s="13">
         <v>0</v>
       </c>
-      <c r="I22" s="13">
-        <v>0</v>
+      <c r="I22" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="13" t="s">
-        <v>18</v>
+      <c r="K22" s="13">
+        <v>0</v>
       </c>
       <c r="L22" s="13">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
@@ -1331,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="I23" s="11">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11">
         <v>366798</v>
       </c>
-      <c r="K23" s="11" t="s">
-        <v>18</v>
+      <c r="J23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
       </c>
       <c r="L23" s="11">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>25</v>
       </c>
@@ -1366,17 +1366,17 @@
       <c r="G24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="13">
-        <v>0</v>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="13" t="s">
-        <v>18</v>
+      <c r="K24" s="13">
+        <v>0</v>
       </c>
       <c r="L24" s="13">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>28</v>
       </c>
@@ -1407,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="15">
-        <v>0</v>
+        <v>366798</v>
       </c>
       <c r="J25" s="15">
-        <v>366798</v>
+        <v>0</v>
       </c>
       <c r="K25" s="15">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>29</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>30</v>
       </c>
@@ -1468,20 +1468,20 @@
       <c r="J27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="11" t="s">
-        <v>18</v>
+      <c r="K27" s="11">
+        <v>377858</v>
       </c>
       <c r="L27" s="11">
-        <v>377858</v>
+        <v>0</v>
       </c>
       <c r="M27" s="11">
-        <v>0</v>
+        <v>1560373</v>
       </c>
       <c r="N27" s="11">
-        <v>1560373</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>237786</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>31</v>
       </c>
@@ -1506,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="K28" s="17">
-        <v>0</v>
+        <v>377858</v>
       </c>
       <c r="L28" s="17">
-        <v>377858</v>
+        <v>0</v>
       </c>
       <c r="M28" s="17">
-        <v>0</v>
+        <v>1560373</v>
       </c>
       <c r="N28" s="17">
-        <v>1560373</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>237786</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>32</v>
       </c>
@@ -1530,8 +1530,8 @@
       <c r="F29" s="15">
         <v>0</v>
       </c>
-      <c r="G29" s="15">
-        <v>0</v>
+      <c r="G29" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>18</v>
@@ -1555,7 +1555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>33</v>
       </c>
@@ -1576,11 +1576,11 @@
       <c r="I30" s="17">
         <v>0</v>
       </c>
-      <c r="J30" s="17">
-        <v>0</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>18</v>
+      <c r="J30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="17">
+        <v>0</v>
       </c>
       <c r="L30" s="17">
         <v>0</v>
@@ -1592,44 +1592,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>55181355</v>
+        <v>60853796</v>
       </c>
       <c r="F31" s="15">
-        <v>60853796</v>
+        <v>35581251</v>
       </c>
       <c r="G31" s="15">
-        <v>35581251</v>
+        <v>27845945</v>
       </c>
       <c r="H31" s="15">
-        <v>27845945</v>
+        <v>91040423</v>
       </c>
       <c r="I31" s="15">
-        <v>91040423</v>
+        <v>100773407</v>
       </c>
       <c r="J31" s="15">
-        <v>100773407</v>
+        <v>0</v>
       </c>
       <c r="K31" s="15">
-        <v>0</v>
+        <v>92675914</v>
       </c>
       <c r="L31" s="15">
-        <v>92675914</v>
+        <v>84106475</v>
       </c>
       <c r="M31" s="15">
-        <v>84106475</v>
+        <v>97463160</v>
       </c>
       <c r="N31" s="15">
-        <v>97463160</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>98457635</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1644,7 +1644,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1659,7 +1659,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1674,7 +1674,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>35</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1726,7 +1726,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>36</v>
       </c>
@@ -1743,7 +1743,7 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>16</v>
       </c>
@@ -1752,37 +1752,37 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>10303</v>
+        <v>4658</v>
       </c>
       <c r="F38" s="11">
-        <v>4658</v>
+        <v>11754</v>
       </c>
       <c r="G38" s="11">
-        <v>11754</v>
+        <v>15540</v>
       </c>
       <c r="H38" s="11">
-        <v>15540</v>
+        <v>12602</v>
       </c>
       <c r="I38" s="11">
-        <v>12602</v>
-      </c>
-      <c r="J38" s="11">
         <v>20320</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>18</v>
+      <c r="J38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="11">
+        <v>30312</v>
       </c>
       <c r="L38" s="11">
-        <v>30312</v>
+        <v>20605</v>
       </c>
       <c r="M38" s="11">
-        <v>20605</v>
+        <v>40720</v>
       </c>
       <c r="N38" s="11">
-        <v>40720</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24605</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>19</v>
       </c>
@@ -1791,37 +1791,37 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
-        <v>681393</v>
+        <v>530797</v>
       </c>
       <c r="F39" s="13">
-        <v>530797</v>
+        <v>10628</v>
       </c>
       <c r="G39" s="13">
-        <v>10628</v>
+        <v>237935</v>
       </c>
       <c r="H39" s="13">
-        <v>237935</v>
+        <v>513907</v>
       </c>
       <c r="I39" s="13">
-        <v>513907</v>
-      </c>
-      <c r="J39" s="13">
         <v>531021</v>
       </c>
-      <c r="K39" s="13" t="s">
-        <v>18</v>
+      <c r="J39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="13">
+        <v>59153</v>
       </c>
       <c r="L39" s="13">
-        <v>59153</v>
+        <v>259798</v>
       </c>
       <c r="M39" s="13">
-        <v>259798</v>
+        <v>770973</v>
       </c>
       <c r="N39" s="13">
-        <v>770973</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>154312</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>21</v>
       </c>
@@ -1830,37 +1830,37 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>20525</v>
+        <v>30542</v>
       </c>
       <c r="F40" s="11">
-        <v>30542</v>
+        <v>14254</v>
       </c>
       <c r="G40" s="11">
-        <v>14254</v>
+        <v>0</v>
       </c>
       <c r="H40" s="11">
-        <v>0</v>
+        <v>2363</v>
       </c>
       <c r="I40" s="11">
-        <v>2363</v>
-      </c>
-      <c r="J40" s="11">
         <v>21356</v>
       </c>
-      <c r="K40" s="11" t="s">
-        <v>18</v>
+      <c r="J40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="11">
+        <v>3319</v>
       </c>
       <c r="L40" s="11">
-        <v>3319</v>
+        <v>0</v>
       </c>
       <c r="M40" s="11">
-        <v>0</v>
+        <v>128927</v>
       </c>
       <c r="N40" s="11">
-        <v>128927</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>117201</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>23</v>
       </c>
@@ -1869,37 +1869,37 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>190131</v>
+        <v>274474</v>
       </c>
       <c r="F41" s="13">
-        <v>274474</v>
+        <v>140933</v>
       </c>
       <c r="G41" s="13">
-        <v>140933</v>
+        <v>91896</v>
       </c>
       <c r="H41" s="13">
-        <v>91896</v>
+        <v>1084470</v>
       </c>
       <c r="I41" s="13">
-        <v>1084470</v>
-      </c>
-      <c r="J41" s="13">
         <v>630049</v>
       </c>
-      <c r="K41" s="13" t="s">
-        <v>18</v>
+      <c r="J41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="13">
+        <v>737557</v>
       </c>
       <c r="L41" s="13">
-        <v>737557</v>
+        <v>679756</v>
       </c>
       <c r="M41" s="13">
-        <v>679756</v>
+        <v>1112668</v>
       </c>
       <c r="N41" s="13">
-        <v>1112668</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>577292</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>24</v>
       </c>
@@ -1908,37 +1908,37 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>321949</v>
+        <v>414446</v>
       </c>
       <c r="F42" s="11">
-        <v>414446</v>
+        <v>451876</v>
       </c>
       <c r="G42" s="11">
-        <v>451876</v>
+        <v>370721</v>
       </c>
       <c r="H42" s="11">
-        <v>370721</v>
+        <v>493708</v>
       </c>
       <c r="I42" s="11">
-        <v>493708</v>
-      </c>
-      <c r="J42" s="11">
         <v>369843</v>
       </c>
-      <c r="K42" s="11" t="s">
-        <v>18</v>
+      <c r="J42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="11">
+        <v>347717</v>
       </c>
       <c r="L42" s="11">
-        <v>347717</v>
+        <v>1358975</v>
       </c>
       <c r="M42" s="11">
-        <v>1358975</v>
+        <v>655675</v>
       </c>
       <c r="N42" s="11">
-        <v>655675</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>136043</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>25</v>
       </c>
@@ -1958,14 +1958,14 @@
       <c r="H43" s="13">
         <v>0</v>
       </c>
-      <c r="I43" s="13">
-        <v>0</v>
+      <c r="I43" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J43" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K43" s="13" t="s">
-        <v>18</v>
+      <c r="K43" s="13">
+        <v>0</v>
       </c>
       <c r="L43" s="13">
         <v>0</v>
@@ -1977,44 +1977,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>1224301</v>
+        <v>1254917</v>
       </c>
       <c r="F44" s="15">
-        <v>1254917</v>
+        <v>629445</v>
       </c>
       <c r="G44" s="15">
-        <v>629445</v>
+        <v>716092</v>
       </c>
       <c r="H44" s="15">
-        <v>716092</v>
+        <v>2107050</v>
       </c>
       <c r="I44" s="15">
-        <v>2107050</v>
+        <v>1572589</v>
       </c>
       <c r="J44" s="15">
-        <v>1572589</v>
+        <v>0</v>
       </c>
       <c r="K44" s="15">
-        <v>0</v>
+        <v>1178058</v>
       </c>
       <c r="L44" s="15">
-        <v>1178058</v>
+        <v>2319134</v>
       </c>
       <c r="M44" s="15">
-        <v>2319134</v>
+        <v>2708963</v>
       </c>
       <c r="N44" s="15">
-        <v>2708963</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1009453</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>38</v>
       </c>
@@ -2031,7 +2031,7 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>16</v>
       </c>
@@ -2051,14 +2051,14 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
+      <c r="I46" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K46" s="11" t="s">
-        <v>18</v>
+      <c r="K46" s="11">
+        <v>0</v>
       </c>
       <c r="L46" s="11">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>19</v>
       </c>
@@ -2090,14 +2090,14 @@
       <c r="H47" s="13">
         <v>0</v>
       </c>
-      <c r="I47" s="13">
-        <v>0</v>
+      <c r="I47" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J47" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="13" t="s">
-        <v>18</v>
+      <c r="K47" s="13">
+        <v>0</v>
       </c>
       <c r="L47" s="13">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>21</v>
       </c>
@@ -2129,14 +2129,14 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-      <c r="I48" s="11">
-        <v>0</v>
+      <c r="I48" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K48" s="11" t="s">
-        <v>18</v>
+      <c r="K48" s="11">
+        <v>0</v>
       </c>
       <c r="L48" s="11">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>23</v>
       </c>
@@ -2168,14 +2168,14 @@
       <c r="H49" s="13">
         <v>0</v>
       </c>
-      <c r="I49" s="13">
-        <v>0</v>
+      <c r="I49" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J49" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K49" s="13" t="s">
-        <v>18</v>
+      <c r="K49" s="13">
+        <v>0</v>
       </c>
       <c r="L49" s="13">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>24</v>
       </c>
@@ -2208,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="I50" s="11">
-        <v>0</v>
-      </c>
-      <c r="J50" s="11">
         <v>14597</v>
       </c>
-      <c r="K50" s="11" t="s">
-        <v>18</v>
+      <c r="J50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0</v>
       </c>
       <c r="L50" s="11">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>25</v>
       </c>
@@ -2243,17 +2243,17 @@
       <c r="G51" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="13">
-        <v>0</v>
+      <c r="H51" s="13">
+        <v>0</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J51" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="13" t="s">
-        <v>18</v>
+      <c r="K51" s="13">
+        <v>0</v>
       </c>
       <c r="L51" s="13">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>28</v>
       </c>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="I52" s="15">
-        <v>0</v>
+        <v>14597</v>
       </c>
       <c r="J52" s="15">
-        <v>14597</v>
+        <v>0</v>
       </c>
       <c r="K52" s="15">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>39</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>30</v>
       </c>
@@ -2345,20 +2345,20 @@
       <c r="J54" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K54" s="11" t="s">
-        <v>18</v>
+      <c r="K54" s="11">
+        <v>46070</v>
       </c>
       <c r="L54" s="11">
-        <v>46070</v>
+        <v>42922</v>
       </c>
       <c r="M54" s="11">
-        <v>42922</v>
+        <v>18613</v>
       </c>
       <c r="N54" s="11">
-        <v>18613</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16768</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>31</v>
       </c>
@@ -2383,19 +2383,19 @@
         <v>0</v>
       </c>
       <c r="K55" s="17">
-        <v>0</v>
+        <v>46070</v>
       </c>
       <c r="L55" s="17">
-        <v>46070</v>
+        <v>42922</v>
       </c>
       <c r="M55" s="17">
-        <v>42922</v>
+        <v>18613</v>
       </c>
       <c r="N55" s="17">
-        <v>18613</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16768</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
         <v>32</v>
       </c>
@@ -2404,14 +2404,14 @@
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15">
-        <v>-3547</v>
+        <v>-80979</v>
       </c>
       <c r="F56" s="15">
-        <v>-80979</v>
-      </c>
-      <c r="G56" s="15">
         <v>116128</v>
       </c>
+      <c r="G56" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="H56" s="15" t="s">
         <v>18</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>33</v>
       </c>
@@ -2443,74 +2443,74 @@
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17">
-        <v>-142059</v>
+        <v>-78349</v>
       </c>
       <c r="F57" s="17">
-        <v>-78349</v>
+        <v>-40756</v>
       </c>
       <c r="G57" s="17">
-        <v>-40756</v>
+        <v>-40336</v>
       </c>
       <c r="H57" s="17">
-        <v>-40336</v>
+        <v>-172857</v>
       </c>
       <c r="I57" s="17">
-        <v>-172857</v>
-      </c>
-      <c r="J57" s="17">
         <v>-140160</v>
       </c>
-      <c r="K57" s="17" t="s">
-        <v>18</v>
+      <c r="J57" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="17">
+        <v>-134349</v>
       </c>
       <c r="L57" s="17">
-        <v>-134349</v>
+        <v>-274170</v>
       </c>
       <c r="M57" s="17">
-        <v>-274170</v>
+        <v>-287425</v>
       </c>
       <c r="N57" s="17">
-        <v>-287425</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>695944</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15">
-        <v>1078695</v>
+        <v>1095589</v>
       </c>
       <c r="F58" s="15">
-        <v>1095589</v>
+        <v>704817</v>
       </c>
       <c r="G58" s="15">
-        <v>704817</v>
+        <v>675756</v>
       </c>
       <c r="H58" s="15">
-        <v>675756</v>
+        <v>1934193</v>
       </c>
       <c r="I58" s="15">
-        <v>1934193</v>
+        <v>1447026</v>
       </c>
       <c r="J58" s="15">
-        <v>1447026</v>
+        <v>0</v>
       </c>
       <c r="K58" s="15">
-        <v>0</v>
+        <v>1089779</v>
       </c>
       <c r="L58" s="15">
-        <v>1089779</v>
+        <v>2087886</v>
       </c>
       <c r="M58" s="15">
-        <v>2087886</v>
+        <v>2440151</v>
       </c>
       <c r="N58" s="15">
-        <v>2440151</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1722165</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2525,7 +2525,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2540,7 +2540,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2555,7 +2555,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>40</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2607,7 +2607,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>41</v>
       </c>
@@ -2624,7 +2624,7 @@
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>16</v>
       </c>
@@ -2633,37 +2633,37 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>29276</v>
+        <v>40058</v>
       </c>
       <c r="F65" s="11">
-        <v>40058</v>
+        <v>40061</v>
       </c>
       <c r="G65" s="11">
-        <v>40061</v>
+        <v>38294</v>
       </c>
       <c r="H65" s="11">
-        <v>38294</v>
+        <v>49771</v>
       </c>
       <c r="I65" s="11">
-        <v>49771</v>
+        <v>52999</v>
       </c>
       <c r="J65" s="11">
+        <v>53000</v>
+      </c>
+      <c r="K65" s="11">
         <v>52999</v>
       </c>
-      <c r="K65" s="11">
-        <v>53000</v>
-      </c>
       <c r="L65" s="11">
-        <v>52999</v>
+        <v>64184</v>
       </c>
       <c r="M65" s="11">
-        <v>64184</v>
+        <v>64828</v>
       </c>
       <c r="N65" s="11">
-        <v>64828</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>83466</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>19</v>
       </c>
@@ -2672,37 +2672,37 @@
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
-        <v>360827</v>
+        <v>326882</v>
       </c>
       <c r="F66" s="13">
-        <v>326882</v>
+        <v>32561</v>
       </c>
       <c r="G66" s="13">
-        <v>32561</v>
+        <v>315624</v>
       </c>
       <c r="H66" s="13">
-        <v>315624</v>
+        <v>357383</v>
       </c>
       <c r="I66" s="13">
-        <v>357383</v>
+        <v>309332</v>
       </c>
       <c r="J66" s="13">
-        <v>309332</v>
+        <v>217098</v>
       </c>
       <c r="K66" s="13">
-        <v>217098</v>
+        <v>141438</v>
       </c>
       <c r="L66" s="13">
-        <v>141438</v>
+        <v>339180</v>
       </c>
       <c r="M66" s="13">
-        <v>339180</v>
+        <v>359775</v>
       </c>
       <c r="N66" s="13">
-        <v>359775</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>229030</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>21</v>
       </c>
@@ -2711,37 +2711,37 @@
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
-        <v>52252</v>
+        <v>59531</v>
       </c>
       <c r="F67" s="11">
-        <v>59531</v>
-      </c>
-      <c r="G67" s="11">
         <v>69977</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>18</v>
+      <c r="G67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="11">
+        <v>67514</v>
       </c>
       <c r="I67" s="11">
-        <v>67514</v>
+        <v>55717</v>
       </c>
       <c r="J67" s="11">
-        <v>55717</v>
+        <v>75426</v>
       </c>
       <c r="K67" s="11">
-        <v>75426</v>
-      </c>
-      <c r="L67" s="11">
         <v>74999</v>
       </c>
-      <c r="M67" s="11" t="s">
-        <v>18</v>
+      <c r="L67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="11">
+        <v>200874</v>
       </c>
       <c r="N67" s="11">
-        <v>200874</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>172901</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>23</v>
       </c>
@@ -2750,37 +2750,37 @@
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
-        <v>4283</v>
+        <v>5296</v>
       </c>
       <c r="F68" s="13">
-        <v>5296</v>
+        <v>5903</v>
       </c>
       <c r="G68" s="13">
-        <v>5903</v>
+        <v>4544</v>
       </c>
       <c r="H68" s="13">
-        <v>4544</v>
+        <v>8224</v>
       </c>
       <c r="I68" s="13">
-        <v>8224</v>
+        <v>6952</v>
       </c>
       <c r="J68" s="13">
-        <v>6952</v>
+        <v>6768</v>
       </c>
       <c r="K68" s="13">
-        <v>6768</v>
+        <v>8946</v>
       </c>
       <c r="L68" s="13">
-        <v>8946</v>
+        <v>8975</v>
       </c>
       <c r="M68" s="13">
-        <v>8975</v>
+        <v>12784</v>
       </c>
       <c r="N68" s="13">
-        <v>12784</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6312</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>24</v>
       </c>
@@ -2789,37 +2789,37 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>39469</v>
+        <v>50366</v>
       </c>
       <c r="F69" s="11">
-        <v>50366</v>
+        <v>41525</v>
       </c>
       <c r="G69" s="11">
-        <v>41525</v>
+        <v>57358</v>
       </c>
       <c r="H69" s="11">
-        <v>57358</v>
+        <v>46901</v>
       </c>
       <c r="I69" s="11">
-        <v>46901</v>
+        <v>50687</v>
       </c>
       <c r="J69" s="11">
-        <v>50687</v>
+        <v>62758</v>
       </c>
       <c r="K69" s="11">
-        <v>62758</v>
+        <v>39449</v>
       </c>
       <c r="L69" s="11">
-        <v>39449</v>
+        <v>186687</v>
       </c>
       <c r="M69" s="11">
-        <v>186687</v>
+        <v>120156</v>
       </c>
       <c r="N69" s="11">
-        <v>120156</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26585</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>25</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>45</v>
       </c>
@@ -2875,7 +2875,7 @@
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>16</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>19</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>21</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>23</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>24</v>
       </c>
@@ -3051,12 +3051,12 @@
       <c r="H76" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J76" s="11">
+      <c r="I76" s="11">
         <v>39796</v>
       </c>
+      <c r="J76" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K76" s="11" t="s">
         <v>18</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>25</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>46</v>
       </c>
@@ -3126,7 +3126,7 @@
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>30</v>
       </c>
@@ -3161,11 +3161,11 @@
       <c r="M79" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N79" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N79" s="11">
+        <v>70517</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3180,7 +3180,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3195,7 +3195,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3210,7 +3210,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>47</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3262,7 +3262,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>48</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>16</v>
       </c>
@@ -3288,37 +3288,37 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>-8767</v>
+        <v>-3060</v>
       </c>
       <c r="F86" s="11">
-        <v>-3060</v>
+        <v>-9645</v>
       </c>
       <c r="G86" s="11">
-        <v>-9645</v>
+        <v>-12447</v>
       </c>
       <c r="H86" s="11">
-        <v>-12447</v>
+        <v>-11760</v>
       </c>
       <c r="I86" s="11">
-        <v>-11760</v>
+        <v>-14979</v>
       </c>
       <c r="J86" s="11">
-        <v>-14979</v>
+        <v>-2472</v>
       </c>
       <c r="K86" s="11">
-        <v>-2472</v>
+        <v>-27694</v>
       </c>
       <c r="L86" s="11">
-        <v>-27694</v>
+        <v>-17797</v>
       </c>
       <c r="M86" s="11">
-        <v>-17797</v>
+        <v>-33584</v>
       </c>
       <c r="N86" s="11">
-        <v>-33584</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-26006</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
         <v>19</v>
       </c>
@@ -3327,37 +3327,37 @@
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13">
-        <v>-284030</v>
+        <v>-187121</v>
       </c>
       <c r="F87" s="13">
-        <v>-187121</v>
+        <v>-105653</v>
       </c>
       <c r="G87" s="13">
-        <v>-105653</v>
+        <v>-135176</v>
       </c>
       <c r="H87" s="13">
-        <v>-135176</v>
+        <v>-387818</v>
       </c>
       <c r="I87" s="13">
-        <v>-387818</v>
+        <v>-312528</v>
       </c>
       <c r="J87" s="13">
-        <v>-312528</v>
+        <v>-157557</v>
       </c>
       <c r="K87" s="13">
-        <v>-157557</v>
+        <v>-64212</v>
       </c>
       <c r="L87" s="13">
-        <v>-64212</v>
+        <v>-182319</v>
       </c>
       <c r="M87" s="13">
-        <v>-182319</v>
+        <v>-608505</v>
       </c>
       <c r="N87" s="13">
-        <v>-608505</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-313615</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>21</v>
       </c>
@@ -3366,37 +3366,37 @@
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
-        <v>-23209</v>
+        <v>-22554</v>
       </c>
       <c r="F88" s="11">
-        <v>-22554</v>
+        <v>-14156</v>
       </c>
       <c r="G88" s="11">
-        <v>-14156</v>
+        <v>0</v>
       </c>
       <c r="H88" s="11">
-        <v>0</v>
+        <v>-2050</v>
       </c>
       <c r="I88" s="11">
-        <v>-2050</v>
+        <v>-16342</v>
       </c>
       <c r="J88" s="11">
-        <v>-16342</v>
+        <v>-9543</v>
       </c>
       <c r="K88" s="11">
-        <v>-9543</v>
+        <v>-911</v>
       </c>
       <c r="L88" s="11">
-        <v>-911</v>
+        <v>-2069</v>
       </c>
       <c r="M88" s="11">
-        <v>-2069</v>
+        <v>-94989</v>
       </c>
       <c r="N88" s="11">
-        <v>-94989</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-135553</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>23</v>
       </c>
@@ -3405,37 +3405,37 @@
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>-144720</v>
+        <v>-176297</v>
       </c>
       <c r="F89" s="13">
-        <v>-176297</v>
+        <v>-144613</v>
       </c>
       <c r="G89" s="13">
-        <v>-144613</v>
+        <v>-84797</v>
       </c>
       <c r="H89" s="13">
-        <v>-84797</v>
+        <v>-606505</v>
       </c>
       <c r="I89" s="13">
-        <v>-606505</v>
+        <v>-386905</v>
       </c>
       <c r="J89" s="13">
-        <v>-386905</v>
+        <v>-283421</v>
       </c>
       <c r="K89" s="13">
-        <v>-283421</v>
+        <v>-419829</v>
       </c>
       <c r="L89" s="13">
-        <v>-419829</v>
+        <v>-419682</v>
       </c>
       <c r="M89" s="13">
-        <v>-419682</v>
+        <v>-632938</v>
       </c>
       <c r="N89" s="13">
-        <v>-632938</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-948270</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>24</v>
       </c>
@@ -3444,37 +3444,37 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>-126537</v>
+        <v>-247577</v>
       </c>
       <c r="F90" s="11">
-        <v>-247577</v>
+        <v>-210243</v>
       </c>
       <c r="G90" s="11">
-        <v>-210243</v>
+        <v>-251379</v>
       </c>
       <c r="H90" s="11">
-        <v>-251379</v>
+        <v>-247733</v>
       </c>
       <c r="I90" s="11">
-        <v>-247733</v>
+        <v>-273294</v>
       </c>
       <c r="J90" s="11">
-        <v>-273294</v>
+        <v>-249727</v>
       </c>
       <c r="K90" s="11">
-        <v>-249727</v>
+        <v>-260505</v>
       </c>
       <c r="L90" s="11">
-        <v>-260505</v>
+        <v>-769179</v>
       </c>
       <c r="M90" s="11">
-        <v>-769179</v>
+        <v>-269139</v>
       </c>
       <c r="N90" s="11">
-        <v>-269139</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-561718</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>25</v>
       </c>
@@ -3494,11 +3494,11 @@
       <c r="H91" s="13">
         <v>0</v>
       </c>
-      <c r="I91" s="13">
-        <v>0</v>
-      </c>
-      <c r="J91" s="13" t="s">
-        <v>18</v>
+      <c r="I91" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" s="13">
+        <v>0</v>
       </c>
       <c r="K91" s="13">
         <v>0</v>
@@ -3513,44 +3513,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
-        <v>-587263</v>
+        <v>-636609</v>
       </c>
       <c r="F92" s="15">
-        <v>-636609</v>
+        <v>-484310</v>
       </c>
       <c r="G92" s="15">
-        <v>-484310</v>
+        <v>-483799</v>
       </c>
       <c r="H92" s="15">
-        <v>-483799</v>
+        <v>-1255866</v>
       </c>
       <c r="I92" s="15">
-        <v>-1255866</v>
+        <v>-1004048</v>
       </c>
       <c r="J92" s="15">
-        <v>-1004048</v>
+        <v>-702720</v>
       </c>
       <c r="K92" s="15">
-        <v>-702720</v>
+        <v>-773151</v>
       </c>
       <c r="L92" s="15">
-        <v>-773151</v>
+        <v>-1391046</v>
       </c>
       <c r="M92" s="15">
-        <v>-1391046</v>
+        <v>-1639155</v>
       </c>
       <c r="N92" s="15">
-        <v>-1639155</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1985162</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>50</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>16</v>
       </c>
@@ -3587,11 +3587,11 @@
       <c r="H94" s="11">
         <v>0</v>
       </c>
-      <c r="I94" s="11">
-        <v>0</v>
-      </c>
-      <c r="J94" s="11" t="s">
-        <v>18</v>
+      <c r="I94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" s="11">
+        <v>0</v>
       </c>
       <c r="K94" s="11">
         <v>0</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>19</v>
       </c>
@@ -3626,11 +3626,11 @@
       <c r="H95" s="13">
         <v>0</v>
       </c>
-      <c r="I95" s="13">
-        <v>0</v>
-      </c>
-      <c r="J95" s="13" t="s">
-        <v>18</v>
+      <c r="I95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J95" s="13">
+        <v>0</v>
       </c>
       <c r="K95" s="13">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>21</v>
       </c>
@@ -3665,11 +3665,11 @@
       <c r="H96" s="11">
         <v>0</v>
       </c>
-      <c r="I96" s="11">
-        <v>0</v>
-      </c>
-      <c r="J96" s="11" t="s">
-        <v>18</v>
+      <c r="I96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" s="11">
+        <v>0</v>
       </c>
       <c r="K96" s="11">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="12" t="s">
         <v>23</v>
       </c>
@@ -3704,11 +3704,11 @@
       <c r="H97" s="13">
         <v>0</v>
       </c>
-      <c r="I97" s="13">
-        <v>0</v>
-      </c>
-      <c r="J97" s="13" t="s">
-        <v>18</v>
+      <c r="I97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" s="13">
+        <v>0</v>
       </c>
       <c r="K97" s="13">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>24</v>
       </c>
@@ -3744,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="I98" s="11">
-        <v>0</v>
+        <v>-13306</v>
       </c>
       <c r="J98" s="11">
-        <v>-13306</v>
+        <v>0</v>
       </c>
       <c r="K98" s="11">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>25</v>
       </c>
@@ -3779,17 +3779,17 @@
       <c r="G99" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H99" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I99" s="13">
-        <v>0</v>
+      <c r="H99" s="13">
+        <v>0</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J99" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K99" s="13" t="s">
-        <v>18</v>
+      <c r="K99" s="13">
+        <v>0</v>
       </c>
       <c r="L99" s="13">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="14" t="s">
         <v>51</v>
       </c>
@@ -3820,10 +3820,10 @@
         <v>0</v>
       </c>
       <c r="I100" s="15">
-        <v>0</v>
+        <v>-13306</v>
       </c>
       <c r="J100" s="15">
-        <v>-13306</v>
+        <v>0</v>
       </c>
       <c r="K100" s="15">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>52</v>
       </c>
@@ -3855,7 +3855,7 @@
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>30</v>
       </c>
@@ -3878,23 +3878,23 @@
       <c r="I102" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J102" s="11" t="s">
-        <v>18</v>
+      <c r="J102" s="11">
+        <v>-53693</v>
       </c>
       <c r="K102" s="11">
-        <v>-53693</v>
+        <v>-39548</v>
       </c>
       <c r="L102" s="11">
-        <v>-39548</v>
+        <v>-34911</v>
       </c>
       <c r="M102" s="11">
-        <v>-34911</v>
+        <v>-11092</v>
       </c>
       <c r="N102" s="11">
-        <v>-11092</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-27919</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="16" t="s">
         <v>53</v>
       </c>
@@ -3916,22 +3916,22 @@
         <v>0</v>
       </c>
       <c r="J103" s="17">
-        <v>0</v>
+        <v>-53693</v>
       </c>
       <c r="K103" s="17">
-        <v>-53693</v>
+        <v>-39548</v>
       </c>
       <c r="L103" s="17">
-        <v>-39548</v>
+        <v>-34911</v>
       </c>
       <c r="M103" s="17">
-        <v>-34911</v>
+        <v>-11092</v>
       </c>
       <c r="N103" s="17">
-        <v>-11092</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-27919</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>32</v>
       </c>
@@ -3945,8 +3945,8 @@
       <c r="F104" s="15">
         <v>0</v>
       </c>
-      <c r="G104" s="15">
-        <v>0</v>
+      <c r="G104" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H104" s="15" t="s">
         <v>18</v>
@@ -3970,7 +3970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="16" t="s">
         <v>33</v>
       </c>
@@ -4009,44 +4009,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15">
-        <v>-587263</v>
+        <v>-636609</v>
       </c>
       <c r="F106" s="15">
-        <v>-636609</v>
+        <v>-484310</v>
       </c>
       <c r="G106" s="15">
-        <v>-484310</v>
+        <v>-483799</v>
       </c>
       <c r="H106" s="15">
-        <v>-483799</v>
+        <v>-1255866</v>
       </c>
       <c r="I106" s="15">
-        <v>-1255866</v>
+        <v>-1017354</v>
       </c>
       <c r="J106" s="15">
-        <v>-1017354</v>
+        <v>-756413</v>
       </c>
       <c r="K106" s="15">
-        <v>-756413</v>
+        <v>-812699</v>
       </c>
       <c r="L106" s="15">
-        <v>-812699</v>
+        <v>-1425957</v>
       </c>
       <c r="M106" s="15">
-        <v>-1425957</v>
+        <v>-1650247</v>
       </c>
       <c r="N106" s="15">
-        <v>-1650247</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2013081</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4061,7 +4061,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4076,7 +4076,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4091,7 +4091,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
         <v>54</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4143,7 +4143,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>55</v>
       </c>
@@ -4160,7 +4160,7 @@
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>16</v>
       </c>
@@ -4169,37 +4169,37 @@
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11">
-        <v>1536</v>
+        <v>1598</v>
       </c>
       <c r="F113" s="11">
-        <v>1598</v>
+        <v>2109</v>
       </c>
       <c r="G113" s="11">
-        <v>2109</v>
+        <v>3093</v>
       </c>
       <c r="H113" s="11">
-        <v>3093</v>
+        <v>842</v>
       </c>
       <c r="I113" s="11">
-        <v>842</v>
+        <v>5341</v>
       </c>
       <c r="J113" s="11">
-        <v>5341</v>
+        <v>708</v>
       </c>
       <c r="K113" s="11">
-        <v>708</v>
+        <v>2618</v>
       </c>
       <c r="L113" s="11">
-        <v>2618</v>
+        <v>2808</v>
       </c>
       <c r="M113" s="11">
-        <v>2808</v>
+        <v>7136</v>
       </c>
       <c r="N113" s="11">
-        <v>7136</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1401</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>19</v>
       </c>
@@ -4208,37 +4208,37 @@
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>397363</v>
+        <v>341865</v>
       </c>
       <c r="F114" s="13">
-        <v>341865</v>
+        <v>-95025</v>
       </c>
       <c r="G114" s="13">
-        <v>-95025</v>
+        <v>102759</v>
       </c>
       <c r="H114" s="13">
-        <v>102759</v>
+        <v>126089</v>
       </c>
       <c r="I114" s="13">
-        <v>126089</v>
+        <v>218493</v>
       </c>
       <c r="J114" s="13">
-        <v>218493</v>
+        <v>104935</v>
       </c>
       <c r="K114" s="13">
-        <v>104935</v>
+        <v>-5059</v>
       </c>
       <c r="L114" s="13">
-        <v>-5059</v>
+        <v>77479</v>
       </c>
       <c r="M114" s="13">
-        <v>77479</v>
+        <v>162468</v>
       </c>
       <c r="N114" s="13">
-        <v>162468</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-159303</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>21</v>
       </c>
@@ -4247,37 +4247,37 @@
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11">
-        <v>-2684</v>
+        <v>7988</v>
       </c>
       <c r="F115" s="11">
-        <v>7988</v>
+        <v>98</v>
       </c>
       <c r="G115" s="11">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H115" s="11">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="I115" s="11">
-        <v>313</v>
+        <v>5014</v>
       </c>
       <c r="J115" s="11">
-        <v>5014</v>
+        <v>17962</v>
       </c>
       <c r="K115" s="11">
-        <v>17962</v>
+        <v>2408</v>
       </c>
       <c r="L115" s="11">
-        <v>2408</v>
+        <v>-2069</v>
       </c>
       <c r="M115" s="11">
-        <v>-2069</v>
+        <v>33938</v>
       </c>
       <c r="N115" s="11">
-        <v>33938</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-18352</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
         <v>23</v>
       </c>
@@ -4286,37 +4286,37 @@
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13">
-        <v>45411</v>
+        <v>91773</v>
       </c>
       <c r="F116" s="13">
-        <v>91773</v>
+        <v>-3680</v>
       </c>
       <c r="G116" s="13">
-        <v>-3680</v>
+        <v>7099</v>
       </c>
       <c r="H116" s="13">
-        <v>7099</v>
+        <v>477965</v>
       </c>
       <c r="I116" s="13">
-        <v>477965</v>
+        <v>243144</v>
       </c>
       <c r="J116" s="13">
-        <v>243144</v>
+        <v>119257</v>
       </c>
       <c r="K116" s="13">
-        <v>119257</v>
+        <v>317728</v>
       </c>
       <c r="L116" s="13">
-        <v>317728</v>
+        <v>260074</v>
       </c>
       <c r="M116" s="13">
-        <v>260074</v>
+        <v>479730</v>
       </c>
       <c r="N116" s="13">
-        <v>479730</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-370978</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>24</v>
       </c>
@@ -4325,37 +4325,37 @@
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
-        <v>195412</v>
+        <v>137456</v>
       </c>
       <c r="F117" s="11">
-        <v>137456</v>
+        <v>241633</v>
       </c>
       <c r="G117" s="11">
-        <v>241633</v>
+        <v>119342</v>
       </c>
       <c r="H117" s="11">
-        <v>119342</v>
+        <v>245975</v>
       </c>
       <c r="I117" s="11">
-        <v>245975</v>
+        <v>96549</v>
       </c>
       <c r="J117" s="11">
-        <v>96549</v>
+        <v>162089</v>
       </c>
       <c r="K117" s="11">
-        <v>162089</v>
+        <v>87212</v>
       </c>
       <c r="L117" s="11">
-        <v>87212</v>
+        <v>589796</v>
       </c>
       <c r="M117" s="11">
-        <v>589796</v>
+        <v>386536</v>
       </c>
       <c r="N117" s="11">
-        <v>386536</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-425675</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
         <v>25</v>
       </c>
@@ -4375,11 +4375,11 @@
       <c r="H118" s="13">
         <v>0</v>
       </c>
-      <c r="I118" s="13">
-        <v>0</v>
-      </c>
-      <c r="J118" s="13" t="s">
-        <v>18</v>
+      <c r="I118" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J118" s="13">
+        <v>0</v>
       </c>
       <c r="K118" s="13">
         <v>0</v>
@@ -4394,44 +4394,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>637038</v>
+        <v>580680</v>
       </c>
       <c r="F119" s="15">
-        <v>580680</v>
+        <v>145135</v>
       </c>
       <c r="G119" s="15">
-        <v>145135</v>
+        <v>232293</v>
       </c>
       <c r="H119" s="15">
-        <v>232293</v>
+        <v>851184</v>
       </c>
       <c r="I119" s="15">
-        <v>851184</v>
+        <v>568541</v>
       </c>
       <c r="J119" s="15">
-        <v>568541</v>
+        <v>404951</v>
       </c>
       <c r="K119" s="15">
-        <v>404951</v>
+        <v>404907</v>
       </c>
       <c r="L119" s="15">
-        <v>404907</v>
+        <v>928088</v>
       </c>
       <c r="M119" s="15">
-        <v>928088</v>
+        <v>1069808</v>
       </c>
       <c r="N119" s="15">
-        <v>1069808</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-975709</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>57</v>
       </c>
@@ -4448,7 +4448,7 @@
       <c r="M120" s="9"/>
       <c r="N120" s="9"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>16</v>
       </c>
@@ -4468,11 +4468,11 @@
       <c r="H121" s="11">
         <v>0</v>
       </c>
-      <c r="I121" s="11">
-        <v>0</v>
-      </c>
-      <c r="J121" s="11" t="s">
-        <v>18</v>
+      <c r="I121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J121" s="11">
+        <v>0</v>
       </c>
       <c r="K121" s="11">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="12" t="s">
         <v>19</v>
       </c>
@@ -4507,11 +4507,11 @@
       <c r="H122" s="13">
         <v>0</v>
       </c>
-      <c r="I122" s="13">
-        <v>0</v>
-      </c>
-      <c r="J122" s="13" t="s">
-        <v>18</v>
+      <c r="I122" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J122" s="13">
+        <v>0</v>
       </c>
       <c r="K122" s="13">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>21</v>
       </c>
@@ -4546,11 +4546,11 @@
       <c r="H123" s="11">
         <v>0</v>
       </c>
-      <c r="I123" s="11">
-        <v>0</v>
-      </c>
-      <c r="J123" s="11" t="s">
-        <v>18</v>
+      <c r="I123" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J123" s="11">
+        <v>0</v>
       </c>
       <c r="K123" s="11">
         <v>0</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="12" t="s">
         <v>23</v>
       </c>
@@ -4585,11 +4585,11 @@
       <c r="H124" s="13">
         <v>0</v>
       </c>
-      <c r="I124" s="13">
-        <v>0</v>
-      </c>
-      <c r="J124" s="13" t="s">
-        <v>18</v>
+      <c r="I124" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J124" s="13">
+        <v>0</v>
       </c>
       <c r="K124" s="13">
         <v>0</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>24</v>
       </c>
@@ -4625,10 +4625,10 @@
         <v>0</v>
       </c>
       <c r="I125" s="11">
-        <v>0</v>
+        <v>1291</v>
       </c>
       <c r="J125" s="11">
-        <v>1291</v>
+        <v>0</v>
       </c>
       <c r="K125" s="11">
         <v>0</v>
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="12" t="s">
         <v>25</v>
       </c>
@@ -4660,17 +4660,17 @@
       <c r="G126" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H126" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I126" s="13">
-        <v>0</v>
+      <c r="H126" s="13">
+        <v>0</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J126" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K126" s="13" t="s">
-        <v>18</v>
+      <c r="K126" s="13">
+        <v>0</v>
       </c>
       <c r="L126" s="13">
         <v>0</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
         <v>58</v>
       </c>
@@ -4701,10 +4701,10 @@
         <v>0</v>
       </c>
       <c r="I127" s="15">
-        <v>0</v>
+        <v>1291</v>
       </c>
       <c r="J127" s="15">
-        <v>1291</v>
+        <v>0</v>
       </c>
       <c r="K127" s="15">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>59</v>
       </c>
@@ -4736,7 +4736,7 @@
       <c r="M128" s="9"/>
       <c r="N128" s="9"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>30</v>
       </c>
@@ -4759,23 +4759,23 @@
       <c r="I129" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J129" s="11" t="s">
-        <v>18</v>
+      <c r="J129" s="11">
+        <v>35180</v>
       </c>
       <c r="K129" s="11">
-        <v>35180</v>
+        <v>6522</v>
       </c>
       <c r="L129" s="11">
-        <v>6522</v>
+        <v>8011</v>
       </c>
       <c r="M129" s="11">
-        <v>8011</v>
+        <v>7521</v>
       </c>
       <c r="N129" s="11">
-        <v>7521</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-11151</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="16" t="s">
         <v>60</v>
       </c>
@@ -4797,56 +4797,56 @@
         <v>0</v>
       </c>
       <c r="J130" s="17">
-        <v>0</v>
+        <v>35180</v>
       </c>
       <c r="K130" s="17">
-        <v>35180</v>
+        <v>6522</v>
       </c>
       <c r="L130" s="17">
-        <v>6522</v>
+        <v>8011</v>
       </c>
       <c r="M130" s="17">
-        <v>8011</v>
+        <v>7521</v>
       </c>
       <c r="N130" s="17">
-        <v>7521</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-11151</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
-        <v>637038</v>
+        <v>580680</v>
       </c>
       <c r="F131" s="15">
-        <v>580680</v>
+        <v>145135</v>
       </c>
       <c r="G131" s="15">
-        <v>145135</v>
+        <v>232293</v>
       </c>
       <c r="H131" s="15">
-        <v>232293</v>
+        <v>851184</v>
       </c>
       <c r="I131" s="15">
-        <v>851184</v>
+        <v>569832</v>
       </c>
       <c r="J131" s="15">
-        <v>569832</v>
+        <v>440131</v>
       </c>
       <c r="K131" s="15">
-        <v>440131</v>
+        <v>411429</v>
       </c>
       <c r="L131" s="15">
-        <v>411429</v>
+        <v>936099</v>
       </c>
       <c r="M131" s="15">
-        <v>936099</v>
+        <v>1077329</v>
       </c>
       <c r="N131" s="15">
-        <v>1077329</v>
+        <v>-986860</v>
       </c>
     </row>
   </sheetData>
